--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6240F-84EE-2A42-A340-E31422B31EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BC7ED-296E-0049-B21B-5C64C753BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>tc={E76275FB-4353-814C-8FBC-49571E8F7BA9}</author>
   </authors>
   <commentList>
-    <comment ref="H88" authorId="0" shapeId="0" xr:uid="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
+    <comment ref="H90" authorId="0" shapeId="0" xr:uid="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="787">
   <si>
     <t>Feature</t>
   </si>
@@ -2420,6 +2420,24 @@
   </si>
   <si>
     <t>It captures the temporal order of transactions within a block</t>
+  </si>
+  <si>
+    <t>ExternalLibNames</t>
+  </si>
+  <si>
+    <t>NoOfExternalLib</t>
+  </si>
+  <si>
+    <t>Names of external libraries linked to the contract during deployment</t>
+  </si>
+  <si>
+    <t>Count of external libraries linked to the contract at deployment</t>
+  </si>
+  <si>
+    <t>Reflects the level of external dependency and modularity</t>
+  </si>
+  <si>
+    <t>Indicates external dependencies and reuse patterns</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2493,12 +2511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,7 +2694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2706,17 +2718,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2902,8 +2911,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:R247" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:R247" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:R249" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R249" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{62075696-6E2B-1B48-920A-6B94BA151E11}" name="Feature" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{4EA24793-5FA4-A741-A4DC-6F6B688707FF}" name="Description" dataDxfId="16"/>
@@ -3257,7 +3266,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H88" dT="2024-09-22T14:07:19.10" personId="{8F91579C-77DA-FF4E-B348-A7CC5C13B153}" id="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
+  <threadedComment ref="H90" dT="2024-09-22T14:07:19.10" personId="{8F91579C-77DA-FF4E-B348-A7CC5C13B153}" id="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
     <text xml:space="preserve">Check these out </text>
   </threadedComment>
 </ThreadedComments>
@@ -3265,13 +3274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
-  <dimension ref="A1:R247"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4033,13 +4042,13 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="24" t="s">
         <v>364</v>
       </c>
       <c r="D18" t="s">
@@ -4074,13 +4083,13 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="24" t="s">
         <v>366</v>
       </c>
       <c r="D19" t="s">
@@ -4115,12 +4124,13 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="24" t="s">
         <v>367</v>
       </c>
+      <c r="C20" s="24"/>
       <c r="D20" t="s">
         <v>5</v>
       </c>
@@ -4153,13 +4163,13 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="24" t="s">
         <v>397</v>
       </c>
       <c r="D21" t="s">
@@ -4197,13 +4207,13 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="24" t="s">
         <v>399</v>
       </c>
       <c r="D22" t="s">
@@ -4244,13 +4254,13 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="24" t="s">
         <v>369</v>
       </c>
       <c r="D23" t="s">
@@ -4285,13 +4295,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="24" t="s">
         <v>371</v>
       </c>
       <c r="D24" t="s">
@@ -4329,13 +4339,13 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="24" t="s">
         <v>373</v>
       </c>
       <c r="D25" t="s">
@@ -4373,13 +4383,13 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="24" t="s">
         <v>375</v>
       </c>
       <c r="D26" t="s">
@@ -4417,13 +4427,13 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="24" t="s">
         <v>376</v>
       </c>
       <c r="D27" t="s">
@@ -4458,13 +4468,13 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="24" t="s">
         <v>395</v>
       </c>
       <c r="D28" t="s">
@@ -4499,13 +4509,13 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="24" t="s">
         <v>378</v>
       </c>
       <c r="D29" t="s">
@@ -4543,13 +4553,13 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="24" t="s">
         <v>380</v>
       </c>
       <c r="D30" t="s">
@@ -4587,13 +4597,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="24" t="s">
         <v>382</v>
       </c>
       <c r="D31" t="s">
@@ -4631,13 +4641,13 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="24" t="s">
         <v>384</v>
       </c>
       <c r="D32" t="s">
@@ -4675,13 +4685,13 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="24" t="s">
         <v>386</v>
       </c>
       <c r="D33" t="s">
@@ -4719,13 +4729,13 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="24" t="s">
         <v>387</v>
       </c>
       <c r="D34" t="s">
@@ -4763,13 +4773,13 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="24" t="s">
         <v>389</v>
       </c>
       <c r="D35" t="s">
@@ -4807,13 +4817,13 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="24" t="s">
         <v>391</v>
       </c>
       <c r="D36" t="s">
@@ -4851,362 +4861,366 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23" t="s">
+      <c r="H37" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
       <c r="P37" t="s">
         <v>739</v>
       </c>
       <c r="Q37" t="s">
         <v>744</v>
       </c>
-      <c r="R37" s="23"/>
+      <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23" t="s">
+      <c r="H38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
       <c r="P38" t="s">
         <v>739</v>
       </c>
       <c r="Q38" t="s">
         <v>744</v>
       </c>
-      <c r="R38" s="23"/>
+      <c r="R38" s="24"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23" t="s">
+      <c r="H39" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
       <c r="P39" t="s">
         <v>739</v>
       </c>
       <c r="Q39" t="s">
         <v>744</v>
       </c>
-      <c r="R39" s="23"/>
+      <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23" t="s">
+      <c r="H40" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
       <c r="P40" t="s">
         <v>739</v>
       </c>
       <c r="Q40" t="s">
         <v>744</v>
       </c>
-      <c r="R40" s="23"/>
+      <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23" t="s">
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23" t="s">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23" t="s">
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="Q41" s="23" t="s">
+      <c r="Q41" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="R41" s="23"/>
+      <c r="R41" s="24"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="24" t="s">
         <v>777</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>775</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23" t="s">
+      <c r="F42" s="24"/>
+      <c r="G42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I42" t="s">
         <v>721</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23" t="s">
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
       <c r="P42" t="s">
         <v>740</v>
       </c>
       <c r="Q42" t="s">
         <v>744</v>
       </c>
-      <c r="R42" s="23"/>
+      <c r="R42" s="24"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I43" t="s">
         <v>721</v>
       </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>405</v>
-      </c>
-      <c r="C44" t="s">
-        <v>404</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="R43" s="24"/>
+    </row>
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K44" t="s">
-        <v>108</v>
-      </c>
-      <c r="L44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" t="s">
-        <v>108</v>
-      </c>
-      <c r="L45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>744</v>
-      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -5220,9 +5234,6 @@
       <c r="H46" t="s">
         <v>112</v>
       </c>
-      <c r="I46" t="s">
-        <v>719</v>
-      </c>
       <c r="K46" t="s">
         <v>108</v>
       </c>
@@ -5238,10 +5249,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -5255,9 +5269,6 @@
       <c r="H47" t="s">
         <v>112</v>
       </c>
-      <c r="I47" t="s">
-        <v>719</v>
-      </c>
       <c r="K47" t="s">
         <v>108</v>
       </c>
@@ -5273,13 +5284,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -5311,13 +5322,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -5349,13 +5357,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -5387,13 +5395,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -5407,6 +5415,9 @@
       <c r="H51" t="s">
         <v>112</v>
       </c>
+      <c r="I51" t="s">
+        <v>719</v>
+      </c>
       <c r="K51" t="s">
         <v>108</v>
       </c>
@@ -5422,13 +5433,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -5442,6 +5453,9 @@
       <c r="H52" t="s">
         <v>112</v>
       </c>
+      <c r="I52" t="s">
+        <v>719</v>
+      </c>
       <c r="K52" t="s">
         <v>108</v>
       </c>
@@ -5457,13 +5471,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="C53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -5492,13 +5506,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -5527,13 +5541,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -5553,9 +5567,6 @@
       <c r="L55" t="s">
         <v>44</v>
       </c>
-      <c r="O55" t="s">
-        <v>445</v>
-      </c>
       <c r="P55" t="s">
         <v>739</v>
       </c>
@@ -5565,13 +5576,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -5600,13 +5611,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -5626,6 +5637,9 @@
       <c r="L57" t="s">
         <v>44</v>
       </c>
+      <c r="O57" t="s">
+        <v>445</v>
+      </c>
       <c r="P57" t="s">
         <v>739</v>
       </c>
@@ -5635,13 +5649,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -5670,13 +5684,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -5705,13 +5719,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -5740,13 +5754,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -5775,13 +5789,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -5810,13 +5824,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -5825,13 +5839,10 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>732</v>
+        <v>112</v>
       </c>
       <c r="K63" t="s">
         <v>108</v>
@@ -5848,13 +5859,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -5863,13 +5874,10 @@
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" t="s">
-        <v>720</v>
+        <v>112</v>
       </c>
       <c r="K64" t="s">
         <v>108</v>
@@ -5886,13 +5894,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -5904,10 +5912,10 @@
         <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="K65" t="s">
         <v>108</v>
@@ -5924,13 +5932,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C66" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -5962,10 +5970,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>427</v>
+      </c>
+      <c r="C67" t="s">
+        <v>428</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -5997,13 +6008,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C68" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -6035,13 +6046,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>434</v>
-      </c>
-      <c r="C69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -6073,13 +6081,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C70" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -6111,13 +6119,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -6149,13 +6157,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -6187,13 +6195,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>441</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -6225,13 +6233,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -6263,31 +6271,34 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>729</v>
+        <v>720</v>
+      </c>
+      <c r="K75" t="s">
+        <v>108</v>
       </c>
       <c r="L75" t="s">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="P75" t="s">
         <v>739</v>
@@ -6298,13 +6309,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -6313,16 +6324,19 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>729</v>
+        <v>720</v>
+      </c>
+      <c r="K76" t="s">
+        <v>108</v>
       </c>
       <c r="L76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P76" t="s">
         <v>739</v>
@@ -6333,28 +6347,31 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C77" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>729</v>
       </c>
       <c r="L77" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="P77" t="s">
         <v>739</v>
@@ -6365,13 +6382,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -6380,10 +6397,13 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>729</v>
       </c>
       <c r="L78" t="s">
         <v>45</v>
@@ -6397,13 +6417,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -6429,13 +6449,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C80" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -6461,13 +6481,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="C81" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -6484,9 +6504,6 @@
       <c r="L81" t="s">
         <v>45</v>
       </c>
-      <c r="O81" t="s">
-        <v>445</v>
-      </c>
       <c r="P81" t="s">
         <v>739</v>
       </c>
@@ -6496,13 +6513,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C82" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -6511,13 +6528,10 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s">
         <v>45</v>
@@ -6531,13 +6545,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -6546,17 +6560,17 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="L83" t="s">
         <v>45</v>
       </c>
+      <c r="O83" t="s">
+        <v>445</v>
+      </c>
       <c r="P83" t="s">
         <v>739</v>
       </c>
@@ -6566,10 +6580,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="C84" t="s">
+        <v>463</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -6578,10 +6595,13 @@
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>729</v>
       </c>
       <c r="L84" t="s">
         <v>45</v>
@@ -6595,10 +6615,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+      <c r="C85" t="s">
+        <v>465</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -6607,10 +6630,13 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>729</v>
       </c>
       <c r="L85" t="s">
         <v>45</v>
@@ -6624,13 +6650,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>469</v>
-      </c>
-      <c r="C86" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -6639,13 +6662,10 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" t="s">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s">
         <v>45</v>
@@ -6659,10 +6679,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -6688,13 +6708,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -6706,10 +6726,10 @@
         <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="L88" t="s">
         <v>45</v>
@@ -6723,13 +6743,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C89" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -6738,13 +6755,10 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" t="s">
-        <v>720</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s">
         <v>45</v>
@@ -6758,7 +6772,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>471</v>
+      </c>
+      <c r="C90" t="s">
+        <v>472</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -6767,10 +6787,13 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>720</v>
       </c>
       <c r="L90" t="s">
         <v>45</v>
@@ -6784,13 +6807,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C91" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -6799,10 +6822,13 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>720</v>
       </c>
       <c r="L91" t="s">
         <v>45</v>
@@ -6816,10 +6842,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" t="s">
-        <v>477</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -6845,13 +6868,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C93" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -6863,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L93" t="s">
         <v>45</v>
@@ -6877,10 +6900,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" t="s">
-        <v>480</v>
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>477</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -6906,31 +6929,28 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="C95" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="P95" t="s">
         <v>739</v>
@@ -6941,28 +6961,25 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L96" t="s">
-        <v>57</v>
-      </c>
-      <c r="O96" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="P96" t="s">
         <v>739</v>
@@ -6973,13 +6990,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C97" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -7008,13 +7025,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>483</v>
-      </c>
-      <c r="C98" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -7026,10 +7040,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" t="s">
-        <v>721</v>
+        <v>112</v>
       </c>
       <c r="L98" t="s">
         <v>57</v>
@@ -7046,13 +7057,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="C99" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -7064,7 +7075,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L99" t="s">
         <v>57</v>
@@ -7081,13 +7092,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C100" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -7099,7 +7110,10 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>721</v>
       </c>
       <c r="L100" t="s">
         <v>57</v>
@@ -7116,13 +7130,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C101" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -7134,7 +7148,7 @@
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L101" t="s">
         <v>57</v>
@@ -7151,13 +7165,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C102" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -7186,13 +7200,13 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C103" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -7221,13 +7235,13 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C104" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -7256,13 +7270,13 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C105" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -7291,13 +7305,13 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C106" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -7326,13 +7340,13 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C107" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -7361,13 +7375,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -7396,13 +7410,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C109" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -7431,13 +7445,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C110" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -7466,13 +7480,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C111" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -7501,13 +7515,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C112" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -7519,7 +7533,7 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L112" t="s">
         <v>57</v>
@@ -7536,10 +7550,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>545</v>
+        <v>509</v>
+      </c>
+      <c r="C113" t="s">
+        <v>510</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -7551,7 +7568,7 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L113" t="s">
         <v>57</v>
@@ -7562,16 +7579,19 @@
       <c r="P113" t="s">
         <v>739</v>
       </c>
-      <c r="R113" t="s">
-        <v>747</v>
+      <c r="Q113" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>511</v>
+      </c>
+      <c r="C114" t="s">
+        <v>512</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -7594,16 +7614,16 @@
       <c r="P114" t="s">
         <v>739</v>
       </c>
-      <c r="R114" t="s">
-        <v>754</v>
+      <c r="Q114" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>523</v>
+        <v>184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>545</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -7627,18 +7647,15 @@
         <v>739</v>
       </c>
       <c r="R115" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B116" t="s">
-        <v>582</v>
-      </c>
-      <c r="C116" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -7667,13 +7684,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" t="s">
-        <v>605</v>
-      </c>
-      <c r="C117" t="s">
-        <v>644</v>
+        <v>162</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>523</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -7697,18 +7711,18 @@
         <v>739</v>
       </c>
       <c r="R117" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="C118" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -7732,18 +7746,18 @@
         <v>739</v>
       </c>
       <c r="R118" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="C119" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -7767,18 +7781,18 @@
         <v>739</v>
       </c>
       <c r="R119" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B120" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C120" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -7802,18 +7816,18 @@
         <v>739</v>
       </c>
       <c r="R120" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="C121" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -7837,18 +7851,18 @@
         <v>739</v>
       </c>
       <c r="R121" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>521</v>
+        <v>638</v>
       </c>
       <c r="C122" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -7872,18 +7886,18 @@
         <v>739</v>
       </c>
       <c r="R122" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="C123" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -7912,13 +7926,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C124" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -7947,13 +7961,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C125" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -7982,13 +7996,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="C126" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -8017,13 +8031,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="C127" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -8052,13 +8066,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="C128" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -8082,18 +8096,18 @@
         <v>739</v>
       </c>
       <c r="R128" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C129" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -8117,18 +8131,18 @@
         <v>739</v>
       </c>
       <c r="R129" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C130" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -8152,18 +8166,18 @@
         <v>739</v>
       </c>
       <c r="R130" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="C131" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -8192,13 +8206,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C132" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -8220,17 +8234,20 @@
       </c>
       <c r="P132" t="s">
         <v>739</v>
+      </c>
+      <c r="R132" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
       <c r="C133" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -8254,18 +8271,18 @@
         <v>739</v>
       </c>
       <c r="R133" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>526</v>
+        <v>625</v>
       </c>
       <c r="C134" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -8287,20 +8304,17 @@
       </c>
       <c r="P134" t="s">
         <v>739</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>745</v>
-      </c>
-      <c r="R134" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="C135" t="s">
+        <v>660</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -8323,19 +8337,19 @@
       <c r="P135" t="s">
         <v>739</v>
       </c>
-      <c r="Q135" t="s">
-        <v>745</v>
-      </c>
       <c r="R135" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>544</v>
+        <v>526</v>
+      </c>
+      <c r="C136" t="s">
+        <v>661</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -8367,10 +8381,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -8402,10 +8416,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -8437,10 +8451,10 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -8472,10 +8486,10 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -8507,10 +8521,10 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -8542,10 +8556,10 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -8577,10 +8591,10 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -8612,10 +8626,10 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -8647,10 +8661,10 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B145" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -8682,10 +8696,10 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -8717,10 +8731,10 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -8752,10 +8766,10 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -8787,10 +8801,10 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -8822,13 +8836,10 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>525</v>
-      </c>
-      <c r="C150" t="s">
-        <v>662</v>
+        <v>585</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -8851,19 +8862,19 @@
       <c r="P150" t="s">
         <v>739</v>
       </c>
+      <c r="Q150" t="s">
+        <v>745</v>
+      </c>
       <c r="R150" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>520</v>
-      </c>
-      <c r="C151" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -8886,19 +8897,22 @@
       <c r="P151" t="s">
         <v>739</v>
       </c>
+      <c r="Q151" t="s">
+        <v>745</v>
+      </c>
       <c r="R151" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B152" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="C152" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -8922,18 +8936,18 @@
         <v>739</v>
       </c>
       <c r="R152" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="C153" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -8957,18 +8971,18 @@
         <v>739</v>
       </c>
       <c r="R153" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C154" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -8992,18 +9006,18 @@
         <v>739</v>
       </c>
       <c r="R154" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="B155" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="C155" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -9027,18 +9041,18 @@
         <v>739</v>
       </c>
       <c r="R155" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="C156" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -9062,18 +9076,18 @@
         <v>739</v>
       </c>
       <c r="R156" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="C157" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -9097,18 +9111,18 @@
         <v>739</v>
       </c>
       <c r="R157" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C158" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -9132,15 +9146,18 @@
         <v>739</v>
       </c>
       <c r="R158" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>527</v>
+        <v>515</v>
+      </c>
+      <c r="C159" t="s">
+        <v>669</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -9164,15 +9181,18 @@
         <v>739</v>
       </c>
       <c r="R159" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
-        <v>518</v>
+        <v>548</v>
+      </c>
+      <c r="C160" t="s">
+        <v>670</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -9201,13 +9221,10 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>547</v>
-      </c>
-      <c r="C161" t="s">
-        <v>671</v>
+        <v>527</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -9230,19 +9247,16 @@
       <c r="P161" t="s">
         <v>739</v>
       </c>
-      <c r="Q161" t="s">
-        <v>745</v>
-      </c>
       <c r="R161" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -9265,19 +9279,19 @@
       <c r="P162" t="s">
         <v>739</v>
       </c>
-      <c r="Q162" t="s">
-        <v>745</v>
-      </c>
       <c r="R162" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>577</v>
+        <v>547</v>
+      </c>
+      <c r="C163" t="s">
+        <v>671</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -9309,10 +9323,10 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B164" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -9344,13 +9358,10 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>552</v>
-      </c>
-      <c r="C165" t="s">
-        <v>672</v>
+        <v>577</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -9372,6 +9383,9 @@
       </c>
       <c r="P165" t="s">
         <v>739</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>745</v>
       </c>
       <c r="R165" t="s">
         <v>751</v>
@@ -9379,13 +9393,10 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>533</v>
-      </c>
-      <c r="C166" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -9408,19 +9419,22 @@
       <c r="P166" t="s">
         <v>739</v>
       </c>
+      <c r="Q166" t="s">
+        <v>745</v>
+      </c>
       <c r="R166" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C167" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -9444,18 +9458,18 @@
         <v>739</v>
       </c>
       <c r="R167" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="C168" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -9484,13 +9498,13 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="C169" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -9514,18 +9528,18 @@
         <v>739</v>
       </c>
       <c r="R169" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B170" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="C170" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -9554,13 +9568,13 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B171" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C171" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -9584,18 +9598,18 @@
         <v>739</v>
       </c>
       <c r="R171" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>573</v>
+        <v>627</v>
       </c>
       <c r="C172" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -9617,17 +9631,20 @@
       </c>
       <c r="P172" t="s">
         <v>739</v>
+      </c>
+      <c r="R172" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C173" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -9651,18 +9668,18 @@
         <v>739</v>
       </c>
       <c r="R173" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C174" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -9684,20 +9701,17 @@
       </c>
       <c r="P174" t="s">
         <v>739</v>
-      </c>
-      <c r="R174" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C175" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -9726,13 +9740,13 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C176" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -9756,18 +9770,18 @@
         <v>739</v>
       </c>
       <c r="R176" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B177" t="s">
-        <v>684</v>
+        <v>572</v>
       </c>
       <c r="C177" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -9791,18 +9805,18 @@
         <v>739</v>
       </c>
       <c r="R177" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="C178" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -9826,18 +9840,18 @@
         <v>739</v>
       </c>
       <c r="R178" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
-        <v>513</v>
+        <v>684</v>
       </c>
       <c r="C179" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -9860,19 +9874,19 @@
       <c r="P179" t="s">
         <v>739</v>
       </c>
-      <c r="Q179" t="s">
-        <v>745</v>
-      </c>
       <c r="R179" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>517</v>
+        <v>539</v>
+      </c>
+      <c r="C180" t="s">
+        <v>686</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -9895,19 +9909,19 @@
       <c r="P180" t="s">
         <v>739</v>
       </c>
-      <c r="Q180" t="s">
-        <v>745</v>
-      </c>
       <c r="R180" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>598</v>
+        <v>513</v>
+      </c>
+      <c r="C181" t="s">
+        <v>687</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -9939,10 +9953,10 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B182" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -9974,10 +9988,10 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B183" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -10009,10 +10023,10 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="B184" t="s">
-        <v>620</v>
+        <v>519</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -10044,10 +10058,10 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -10079,10 +10093,10 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B186" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -10114,10 +10128,10 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B187" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -10149,10 +10163,10 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -10184,10 +10198,10 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B189" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -10219,10 +10233,10 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="B190" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -10254,10 +10268,10 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B191" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -10289,10 +10303,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B192" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -10324,10 +10338,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B193" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -10359,10 +10373,10 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B194" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -10394,10 +10408,10 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B195" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -10429,10 +10443,10 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>642</v>
+        <v>567</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
@@ -10464,10 +10478,10 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -10499,10 +10513,10 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -10534,10 +10548,10 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B199" t="s">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
@@ -10569,10 +10583,10 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B200" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
@@ -10604,10 +10618,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B201" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
@@ -10639,10 +10653,10 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B202" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -10674,10 +10688,10 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -10709,10 +10723,10 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B204" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
@@ -10744,10 +10758,10 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
@@ -10779,10 +10793,10 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B206" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -10814,10 +10828,10 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="B207" t="s">
-        <v>574</v>
+        <v>630</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -10849,10 +10863,31 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>741</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
-        <v>742</v>
+        <v>613</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>292</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="s">
+        <v>113</v>
+      </c>
+      <c r="L208" t="s">
+        <v>57</v>
+      </c>
+      <c r="O208" t="s">
+        <v>295</v>
+      </c>
+      <c r="P208" t="s">
+        <v>739</v>
       </c>
       <c r="Q208" t="s">
         <v>745</v>
@@ -10863,10 +10898,10 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -10898,31 +10933,10 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>180</v>
+        <v>741</v>
       </c>
       <c r="B210" t="s">
-        <v>541</v>
-      </c>
-      <c r="D210" t="s">
-        <v>4</v>
-      </c>
-      <c r="E210" t="s">
-        <v>292</v>
-      </c>
-      <c r="G210" t="s">
-        <v>20</v>
-      </c>
-      <c r="H210" t="s">
-        <v>113</v>
-      </c>
-      <c r="L210" t="s">
-        <v>57</v>
-      </c>
-      <c r="O210" t="s">
-        <v>295</v>
-      </c>
-      <c r="P210" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="Q210" t="s">
         <v>745</v>
@@ -10933,13 +10947,10 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="B211" t="s">
-        <v>550</v>
-      </c>
-      <c r="C211" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -10962,19 +10973,19 @@
       <c r="P211" t="s">
         <v>739</v>
       </c>
+      <c r="Q211" t="s">
+        <v>745</v>
+      </c>
       <c r="R211" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B212" t="s">
-        <v>601</v>
-      </c>
-      <c r="C212" t="s">
-        <v>689</v>
+        <v>541</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -10997,19 +11008,22 @@
       <c r="P212" t="s">
         <v>739</v>
       </c>
+      <c r="Q212" t="s">
+        <v>745</v>
+      </c>
       <c r="R212" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B213" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C213" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -11033,18 +11047,18 @@
         <v>739</v>
       </c>
       <c r="R213" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="C214" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -11068,18 +11082,18 @@
         <v>739</v>
       </c>
       <c r="R214" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="C215" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -11103,18 +11117,18 @@
         <v>739</v>
       </c>
       <c r="R215" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>619</v>
+        <v>540</v>
       </c>
       <c r="C216" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -11138,18 +11152,18 @@
         <v>739</v>
       </c>
       <c r="R216" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B217" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="C217" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
@@ -11173,18 +11187,18 @@
         <v>739</v>
       </c>
       <c r="R217" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B218" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -11208,18 +11222,18 @@
         <v>739</v>
       </c>
       <c r="R218" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="B219" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="C219" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
@@ -11243,18 +11257,18 @@
         <v>739</v>
       </c>
       <c r="R219" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="C220" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
@@ -11276,17 +11290,20 @@
       </c>
       <c r="P220" t="s">
         <v>739</v>
+      </c>
+      <c r="R220" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>699</v>
+        <v>616</v>
       </c>
       <c r="C221" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D221" t="s">
         <v>4</v>
@@ -11310,18 +11327,18 @@
         <v>739</v>
       </c>
       <c r="R221" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B222" t="s">
-        <v>702</v>
+        <v>551</v>
       </c>
       <c r="C222" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -11343,20 +11360,17 @@
       </c>
       <c r="P222" t="s">
         <v>739</v>
-      </c>
-      <c r="R222" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B223" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="C223" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
@@ -11380,18 +11394,18 @@
         <v>739</v>
       </c>
       <c r="R223" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>528</v>
+        <v>702</v>
       </c>
       <c r="C224" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
@@ -11415,18 +11429,18 @@
         <v>739</v>
       </c>
       <c r="R224" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C225" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
@@ -11450,18 +11464,18 @@
         <v>739</v>
       </c>
       <c r="R225" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B226" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C226" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -11490,13 +11504,13 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B227" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="C227" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -11520,18 +11534,18 @@
         <v>739</v>
       </c>
       <c r="R227" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C228" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -11555,18 +11569,18 @@
         <v>739</v>
       </c>
       <c r="R228" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="B229" t="s">
-        <v>529</v>
+        <v>633</v>
       </c>
       <c r="C229" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
@@ -11590,18 +11604,18 @@
         <v>739</v>
       </c>
       <c r="R229" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B230" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="C230" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -11624,19 +11638,19 @@
       <c r="P230" t="s">
         <v>739</v>
       </c>
-      <c r="Q230" t="s">
-        <v>745</v>
-      </c>
       <c r="R230" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B231" t="s">
-        <v>546</v>
+        <v>529</v>
+      </c>
+      <c r="C231" t="s">
+        <v>709</v>
       </c>
       <c r="D231" t="s">
         <v>4</v>
@@ -11659,19 +11673,19 @@
       <c r="P231" t="s">
         <v>739</v>
       </c>
-      <c r="Q231" t="s">
-        <v>745</v>
-      </c>
       <c r="R231" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B232" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="C232" t="s">
+        <v>710</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -11703,10 +11717,10 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B233" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
@@ -11738,10 +11752,10 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B234" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
@@ -11773,10 +11787,10 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B235" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
@@ -11808,10 +11822,10 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B236" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D236" t="s">
         <v>4</v>
@@ -11843,10 +11857,10 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B237" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D237" t="s">
         <v>4</v>
@@ -11878,10 +11892,10 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="B238" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="D238" t="s">
         <v>4</v>
@@ -11913,10 +11927,10 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B239" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
@@ -11948,10 +11962,10 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
@@ -11983,10 +11997,10 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
@@ -12018,10 +12032,10 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
@@ -12053,10 +12067,10 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B243" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
@@ -12088,10 +12102,10 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="B244" t="s">
-        <v>635</v>
+        <v>590</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -12123,13 +12137,10 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>599</v>
-      </c>
-      <c r="C245" t="s">
-        <v>711</v>
+        <v>608</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -12152,19 +12163,19 @@
       <c r="P245" t="s">
         <v>739</v>
       </c>
+      <c r="Q245" t="s">
+        <v>745</v>
+      </c>
       <c r="R245" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B246" t="s">
-        <v>563</v>
-      </c>
-      <c r="C246" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
@@ -12186,40 +12197,113 @@
       </c>
       <c r="P246" t="s">
         <v>739</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>745</v>
+      </c>
+      <c r="R246" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247" t="s">
+        <v>599</v>
+      </c>
+      <c r="C247" t="s">
+        <v>711</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>292</v>
+      </c>
+      <c r="G247" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" t="s">
+        <v>113</v>
+      </c>
+      <c r="L247" t="s">
+        <v>57</v>
+      </c>
+      <c r="O247" t="s">
+        <v>295</v>
+      </c>
+      <c r="P247" t="s">
+        <v>739</v>
+      </c>
+      <c r="R247" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>202</v>
+      </c>
+      <c r="B248" t="s">
+        <v>563</v>
+      </c>
+      <c r="C248" t="s">
+        <v>713</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" t="s">
+        <v>292</v>
+      </c>
+      <c r="G248" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" t="s">
+        <v>113</v>
+      </c>
+      <c r="L248" t="s">
+        <v>57</v>
+      </c>
+      <c r="O248" t="s">
+        <v>295</v>
+      </c>
+      <c r="P248" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>283</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B249" t="s">
         <v>641</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C249" t="s">
         <v>712</v>
       </c>
-      <c r="D247" t="s">
-        <v>4</v>
-      </c>
-      <c r="E247" t="s">
-        <v>292</v>
-      </c>
-      <c r="G247" t="s">
-        <v>20</v>
-      </c>
-      <c r="H247" t="s">
-        <v>113</v>
-      </c>
-      <c r="L247" t="s">
-        <v>57</v>
-      </c>
-      <c r="O247" t="s">
-        <v>295</v>
-      </c>
-      <c r="P247" t="s">
-        <v>739</v>
-      </c>
-      <c r="R247" t="s">
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" t="s">
+        <v>292</v>
+      </c>
+      <c r="G249" t="s">
+        <v>20</v>
+      </c>
+      <c r="H249" t="s">
+        <v>113</v>
+      </c>
+      <c r="L249" t="s">
+        <v>57</v>
+      </c>
+      <c r="O249" t="s">
+        <v>295</v>
+      </c>
+      <c r="P249" t="s">
+        <v>739</v>
+      </c>
+      <c r="R249" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12237,55 +12321,55 @@
           <x14:formula1>
             <xm:f>'List options'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D247</xm:sqref>
+          <xm:sqref>D2:D249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E460DE7-8F87-F04F-8BB0-4F39179473AB}">
           <x14:formula1>
             <xm:f>'List options'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J247</xm:sqref>
+          <xm:sqref>J2:J249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDAA4A43-7BE0-7D40-90B6-8FB9D9E58678}">
           <x14:formula1>
             <xm:f>'List options'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K247</xm:sqref>
+          <xm:sqref>K2:K249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B119D1AD-A38F-E34A-9449-C43077A98CB0}">
           <x14:formula1>
             <xm:f>'List options'!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H247</xm:sqref>
+          <xm:sqref>H2:H249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8F9807-5020-344C-AC6C-6F55F671046A}">
           <x14:formula1>
             <xm:f>'List options'!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G247</xm:sqref>
+          <xm:sqref>G2:G249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C907890-5F6A-E34E-949F-B812B3AB0E61}">
           <x14:formula1>
             <xm:f>'List options'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M247</xm:sqref>
+          <xm:sqref>M2:M249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C3532CD-AD48-9F4F-9DAF-F8629289A3AE}">
           <x14:formula1>
             <xm:f>'List options'!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N247</xm:sqref>
+          <xm:sqref>N2:N249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D530E642-5308-A74E-890E-60D3DA09A154}">
           <x14:formula1>
             <xm:f>'List options'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F247</xm:sqref>
+          <xm:sqref>F2:F249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5D4F3BB-E89F-2C45-9E14-5D1A5BEC0ED8}">
           <x14:formula1>
             <xm:f>'List options'!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E247</xm:sqref>
+          <xm:sqref>E2:E249</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BC7ED-296E-0049-B21B-5C64C753BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682F209C-01DF-4C44-8531-846F45BF48F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -1201,9 +1201,6 @@
     <t>Ensures compatibility with the EVM environment where the contract is deployed</t>
   </si>
   <si>
-    <t>Any external libraries linked to the contract during deployment, e.g., SafeMath. It supports up to 10 different libraries.</t>
-  </si>
-  <si>
     <t>Allows code reuse and modularity, improving contract functionality</t>
   </si>
   <si>
@@ -2438,6 +2435,9 @@
   </si>
   <si>
     <t>Indicates external dependencies and reuse patterns</t>
+  </si>
+  <si>
+    <t>Any external libraries linked to the contract during deployment</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2718,14 +2718,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3276,11 +3271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
   <dimension ref="A1:R249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44:XFD44"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3352,13 +3347,13 @@
         <v>294</v>
       </c>
       <c r="P1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -3387,7 +3382,7 @@
         <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" t="s">
         <v>311</v>
@@ -3396,10 +3391,10 @@
         <v>315</v>
       </c>
       <c r="P2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -3437,10 +3432,10 @@
         <v>316</v>
       </c>
       <c r="P3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -3478,10 +3473,10 @@
         <v>316</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -3510,7 +3505,7 @@
         <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -3522,10 +3517,10 @@
         <v>316</v>
       </c>
       <c r="P5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -3554,7 +3549,7 @@
         <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -3566,10 +3561,10 @@
         <v>315</v>
       </c>
       <c r="P6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -3607,10 +3602,10 @@
         <v>315</v>
       </c>
       <c r="P7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -3639,7 +3634,7 @@
         <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -3651,10 +3646,10 @@
         <v>316</v>
       </c>
       <c r="P8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -3692,10 +3687,10 @@
         <v>316</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -3724,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -3736,10 +3731,10 @@
         <v>316</v>
       </c>
       <c r="P10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -3768,7 +3763,7 @@
         <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -3780,13 +3775,13 @@
         <v>316</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -3824,10 +3819,10 @@
         <v>316</v>
       </c>
       <c r="P12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -3865,10 +3860,10 @@
         <v>315</v>
       </c>
       <c r="P13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -3906,10 +3901,10 @@
         <v>315</v>
       </c>
       <c r="P14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -3947,10 +3942,10 @@
         <v>316</v>
       </c>
       <c r="P15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -3979,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -3991,10 +3986,10 @@
         <v>316</v>
       </c>
       <c r="P16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -4023,7 +4018,7 @@
         <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -4035,20 +4030,20 @@
         <v>315</v>
       </c>
       <c r="P17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" t="s">
         <v>364</v>
       </c>
       <c r="D18" t="s">
@@ -4076,20 +4071,20 @@
         <v>316</v>
       </c>
       <c r="P18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" t="s">
         <v>365</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" t="s">
         <v>366</v>
       </c>
       <c r="D19" t="s">
@@ -4117,20 +4112,19 @@
         <v>316</v>
       </c>
       <c r="P19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="24"/>
       <c r="D20" t="s">
         <v>5</v>
       </c>
@@ -4156,21 +4150,21 @@
         <v>316</v>
       </c>
       <c r="P20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" t="s">
         <v>396</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -4185,7 +4179,7 @@
         <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -4197,24 +4191,24 @@
         <v>316</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" t="s">
         <v>398</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -4229,7 +4223,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -4244,23 +4238,23 @@
         <v>316</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" t="s">
         <v>369</v>
       </c>
       <c r="D23" t="s">
@@ -4279,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -4291,17 +4285,17 @@
         <v>314</v>
       </c>
       <c r="Q23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" t="s">
         <v>370</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" t="s">
         <v>371</v>
       </c>
       <c r="D24" t="s">
@@ -4320,7 +4314,7 @@
         <v>290</v>
       </c>
       <c r="I24" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -4332,20 +4326,20 @@
         <v>314</v>
       </c>
       <c r="P24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" t="s">
         <v>372</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" t="s">
         <v>373</v>
       </c>
       <c r="D25" t="s">
@@ -4364,7 +4358,7 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -4376,20 +4370,20 @@
         <v>314</v>
       </c>
       <c r="P25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" t="s">
         <v>374</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" t="s">
         <v>375</v>
       </c>
       <c r="D26" t="s">
@@ -4408,7 +4402,7 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -4420,20 +4414,20 @@
         <v>314</v>
       </c>
       <c r="P26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="B27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" t="s">
         <v>376</v>
       </c>
       <c r="D27" t="s">
@@ -4461,21 +4455,21 @@
         <v>314</v>
       </c>
       <c r="P27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" t="s">
         <v>394</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>395</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -4502,20 +4496,20 @@
         <v>314</v>
       </c>
       <c r="P28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" t="s">
         <v>378</v>
       </c>
       <c r="D29" t="s">
@@ -4534,7 +4528,7 @@
         <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -4546,20 +4540,20 @@
         <v>314</v>
       </c>
       <c r="P29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" t="s">
         <v>379</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" t="s">
         <v>380</v>
       </c>
       <c r="D30" t="s">
@@ -4578,7 +4572,7 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -4590,21 +4584,21 @@
         <v>314</v>
       </c>
       <c r="P30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" t="s">
+        <v>786</v>
+      </c>
+      <c r="C31" t="s">
         <v>381</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>382</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4622,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -4634,21 +4628,21 @@
         <v>314</v>
       </c>
       <c r="P31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" t="s">
         <v>383</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>384</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4666,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -4678,21 +4672,21 @@
         <v>314</v>
       </c>
       <c r="P32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q32" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
         <v>385</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>386</v>
       </c>
       <c r="D33" t="s">
         <v>297</v>
@@ -4710,7 +4704,7 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -4722,21 +4716,21 @@
         <v>316</v>
       </c>
       <c r="P33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q33" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>387</v>
+      <c r="B34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" t="s">
+        <v>386</v>
       </c>
       <c r="D34" t="s">
         <v>297</v>
@@ -4754,7 +4748,7 @@
         <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -4766,21 +4760,21 @@
         <v>316</v>
       </c>
       <c r="P34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q34" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" t="s">
         <v>388</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -4798,7 +4792,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -4810,21 +4804,21 @@
         <v>314</v>
       </c>
       <c r="P35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q35" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" t="s">
         <v>390</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>391</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -4842,7 +4836,7 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -4854,373 +4848,309 @@
         <v>315</v>
       </c>
       <c r="P36" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="B37" t="s">
+        <v>763</v>
+      </c>
+      <c r="C37" t="s">
+        <v>767</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="B38" t="s">
+        <v>764</v>
+      </c>
+      <c r="C38" t="s">
+        <v>768</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>761</v>
+      </c>
+      <c r="B39" t="s">
+        <v>765</v>
+      </c>
+      <c r="C39" t="s">
+        <v>769</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>762</v>
+      </c>
+      <c r="B40" t="s">
+        <v>766</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>771</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
         <v>739</v>
       </c>
-      <c r="Q36" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="D37" s="24" t="s">
+      <c r="Q41" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>772</v>
+      </c>
+      <c r="B42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E42" t="s">
         <v>298</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>720</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>777</v>
+      </c>
+      <c r="B43" t="s">
+        <v>778</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>720</v>
+      </c>
+      <c r="P43" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>780</v>
+      </c>
+      <c r="B44" t="s">
+        <v>782</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>781</v>
+      </c>
+      <c r="B45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>744</v>
-      </c>
-      <c r="R37" s="24"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>769</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>744</v>
-      </c>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>766</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>744</v>
-      </c>
-      <c r="R39" s="24"/>
-    </row>
-    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>744</v>
-      </c>
-      <c r="R40" s="24"/>
-    </row>
-    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="H45" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="R41" s="24"/>
-    </row>
-    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>721</v>
-      </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>744</v>
-      </c>
-      <c r="R42" s="24"/>
-    </row>
-    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
-        <v>778</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>779</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>721</v>
-      </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="R43" s="24"/>
-    </row>
-    <row r="44" spans="1:18" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="24" t="s">
+      <c r="L45" t="s">
         <v>52</v>
       </c>
-      <c r="P44" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -5241,13 +5171,13 @@
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q46" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -5255,7 +5185,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -5276,13 +5206,13 @@
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q47" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5290,7 +5220,7 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -5305,7 +5235,7 @@
         <v>112</v>
       </c>
       <c r="I48" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K48" t="s">
         <v>108</v>
@@ -5314,10 +5244,10 @@
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5340,7 +5270,7 @@
         <v>112</v>
       </c>
       <c r="I49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K49" t="s">
         <v>108</v>
@@ -5349,10 +5279,10 @@
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q49" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5363,7 +5293,7 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -5378,7 +5308,7 @@
         <v>112</v>
       </c>
       <c r="I50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K50" t="s">
         <v>108</v>
@@ -5387,10 +5317,10 @@
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q50" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5401,7 +5331,7 @@
         <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -5416,7 +5346,7 @@
         <v>112</v>
       </c>
       <c r="I51" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K51" t="s">
         <v>108</v>
@@ -5425,10 +5355,10 @@
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5439,7 +5369,7 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -5454,7 +5384,7 @@
         <v>112</v>
       </c>
       <c r="I52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K52" t="s">
         <v>108</v>
@@ -5463,10 +5393,10 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5474,10 +5404,10 @@
         <v>72</v>
       </c>
       <c r="B53" t="s">
+        <v>409</v>
+      </c>
+      <c r="C53" t="s">
         <v>410</v>
-      </c>
-      <c r="C53" t="s">
-        <v>411</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -5498,10 +5428,10 @@
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q53" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5512,7 +5442,7 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -5533,10 +5463,10 @@
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q54" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5547,7 +5477,7 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -5568,10 +5498,10 @@
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q55" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5582,7 +5512,7 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -5603,10 +5533,10 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q56" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5617,7 +5547,7 @@
         <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -5638,13 +5568,13 @@
         <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q57" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5655,7 +5585,7 @@
         <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -5676,10 +5606,10 @@
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5690,7 +5620,7 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -5711,10 +5641,10 @@
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q59" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5725,7 +5655,7 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -5746,10 +5676,10 @@
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q60" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -5760,7 +5690,7 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -5781,10 +5711,10 @@
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -5795,7 +5725,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -5816,10 +5746,10 @@
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q62" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -5830,7 +5760,7 @@
         <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -5851,10 +5781,10 @@
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q63" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -5865,7 +5795,7 @@
         <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -5886,10 +5816,10 @@
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q64" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -5897,10 +5827,10 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -5915,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K65" t="s">
         <v>108</v>
@@ -5924,10 +5854,10 @@
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -5935,10 +5865,10 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
+        <v>424</v>
+      </c>
+      <c r="C66" t="s">
         <v>425</v>
-      </c>
-      <c r="C66" t="s">
-        <v>426</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -5953,7 +5883,7 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K66" t="s">
         <v>108</v>
@@ -5962,10 +5892,10 @@
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q66" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5973,10 +5903,10 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s">
         <v>427</v>
-      </c>
-      <c r="C67" t="s">
-        <v>428</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -5991,7 +5921,7 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K67" t="s">
         <v>108</v>
@@ -6000,10 +5930,10 @@
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q67" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6011,10 +5941,10 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" t="s">
         <v>429</v>
-      </c>
-      <c r="C68" t="s">
-        <v>430</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -6029,7 +5959,7 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K68" t="s">
         <v>108</v>
@@ -6038,10 +5968,10 @@
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q68" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6049,7 +5979,7 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -6064,7 +5994,7 @@
         <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K69" t="s">
         <v>108</v>
@@ -6073,10 +6003,10 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6084,10 +6014,10 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
+        <v>431</v>
+      </c>
+      <c r="C70" t="s">
         <v>432</v>
-      </c>
-      <c r="C70" t="s">
-        <v>433</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -6102,7 +6032,7 @@
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K70" t="s">
         <v>108</v>
@@ -6111,10 +6041,10 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q70" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6122,10 +6052,10 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
+        <v>433</v>
+      </c>
+      <c r="C71" t="s">
         <v>434</v>
-      </c>
-      <c r="C71" t="s">
-        <v>435</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -6140,7 +6070,7 @@
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K71" t="s">
         <v>108</v>
@@ -6149,10 +6079,10 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q71" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6160,10 +6090,10 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72" t="s">
         <v>436</v>
-      </c>
-      <c r="C72" t="s">
-        <v>437</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -6178,7 +6108,7 @@
         <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K72" t="s">
         <v>108</v>
@@ -6187,10 +6117,10 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6201,7 +6131,7 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -6216,7 +6146,7 @@
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K73" t="s">
         <v>108</v>
@@ -6225,10 +6155,10 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q73" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6236,10 +6166,10 @@
         <v>105</v>
       </c>
       <c r="B74" t="s">
+        <v>438</v>
+      </c>
+      <c r="C74" t="s">
         <v>439</v>
-      </c>
-      <c r="C74" t="s">
-        <v>440</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -6254,7 +6184,7 @@
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K74" t="s">
         <v>108</v>
@@ -6263,10 +6193,10 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q74" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6274,10 +6204,10 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
+        <v>440</v>
+      </c>
+      <c r="C75" t="s">
         <v>441</v>
-      </c>
-      <c r="C75" t="s">
-        <v>442</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -6292,7 +6222,7 @@
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K75" t="s">
         <v>108</v>
@@ -6301,10 +6231,10 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q75" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6312,10 +6242,10 @@
         <v>107</v>
       </c>
       <c r="B76" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" t="s">
         <v>443</v>
-      </c>
-      <c r="C76" t="s">
-        <v>444</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -6330,7 +6260,7 @@
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K76" t="s">
         <v>108</v>
@@ -6339,10 +6269,10 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q76" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6350,10 +6280,10 @@
         <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -6368,16 +6298,16 @@
         <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L77" t="s">
         <v>293</v>
       </c>
       <c r="P77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q77" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6385,10 +6315,10 @@
         <v>115</v>
       </c>
       <c r="B78" t="s">
+        <v>449</v>
+      </c>
+      <c r="C78" t="s">
         <v>450</v>
-      </c>
-      <c r="C78" t="s">
-        <v>451</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -6403,16 +6333,16 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L78" t="s">
         <v>45</v>
       </c>
       <c r="P78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6420,10 +6350,10 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C79" t="s">
         <v>453</v>
-      </c>
-      <c r="C79" t="s">
-        <v>454</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -6441,10 +6371,10 @@
         <v>45</v>
       </c>
       <c r="P79" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q79" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6452,10 +6382,10 @@
         <v>117</v>
       </c>
       <c r="B80" t="s">
+        <v>454</v>
+      </c>
+      <c r="C80" t="s">
         <v>455</v>
-      </c>
-      <c r="C80" t="s">
-        <v>456</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -6473,10 +6403,10 @@
         <v>45</v>
       </c>
       <c r="P80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q80" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6484,10 +6414,10 @@
         <v>118</v>
       </c>
       <c r="B81" t="s">
+        <v>456</v>
+      </c>
+      <c r="C81" t="s">
         <v>457</v>
-      </c>
-      <c r="C81" t="s">
-        <v>458</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -6505,10 +6435,10 @@
         <v>45</v>
       </c>
       <c r="P81" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -6516,10 +6446,10 @@
         <v>119</v>
       </c>
       <c r="B82" t="s">
+        <v>458</v>
+      </c>
+      <c r="C82" t="s">
         <v>459</v>
-      </c>
-      <c r="C82" t="s">
-        <v>460</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -6537,10 +6467,10 @@
         <v>45</v>
       </c>
       <c r="P82" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q82" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -6551,7 +6481,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -6569,13 +6499,13 @@
         <v>45</v>
       </c>
       <c r="O83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P83" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -6583,10 +6513,10 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C84" t="s">
         <v>462</v>
-      </c>
-      <c r="C84" t="s">
-        <v>463</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -6601,16 +6531,16 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L84" t="s">
         <v>45</v>
       </c>
       <c r="P84" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q84" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -6618,10 +6548,10 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
+        <v>463</v>
+      </c>
+      <c r="C85" t="s">
         <v>464</v>
-      </c>
-      <c r="C85" t="s">
-        <v>465</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -6636,16 +6566,16 @@
         <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L85" t="s">
         <v>45</v>
       </c>
       <c r="P85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q85" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -6653,7 +6583,7 @@
         <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -6671,10 +6601,10 @@
         <v>45</v>
       </c>
       <c r="P86" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q86" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -6682,7 +6612,7 @@
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -6700,10 +6630,10 @@
         <v>45</v>
       </c>
       <c r="P87" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q87" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -6711,10 +6641,10 @@
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -6729,16 +6659,16 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L88" t="s">
         <v>45</v>
       </c>
       <c r="P88" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q88" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -6746,7 +6676,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -6764,10 +6694,10 @@
         <v>45</v>
       </c>
       <c r="P89" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q89" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -6775,10 +6705,10 @@
         <v>127</v>
       </c>
       <c r="B90" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" t="s">
         <v>471</v>
-      </c>
-      <c r="C90" t="s">
-        <v>472</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -6793,16 +6723,16 @@
         <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L90" t="s">
         <v>45</v>
       </c>
       <c r="P90" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q90" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -6810,10 +6740,10 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" t="s">
         <v>473</v>
-      </c>
-      <c r="C91" t="s">
-        <v>474</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -6828,16 +6758,16 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L91" t="s">
         <v>45</v>
       </c>
       <c r="P91" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q91" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -6860,10 +6790,10 @@
         <v>45</v>
       </c>
       <c r="P92" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q92" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -6871,10 +6801,10 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
+        <v>474</v>
+      </c>
+      <c r="C93" t="s">
         <v>475</v>
-      </c>
-      <c r="C93" t="s">
-        <v>476</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -6892,10 +6822,10 @@
         <v>45</v>
       </c>
       <c r="P93" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q93" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -6903,7 +6833,7 @@
         <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -6921,10 +6851,10 @@
         <v>45</v>
       </c>
       <c r="P94" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q94" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -6932,10 +6862,10 @@
         <v>132</v>
       </c>
       <c r="B95" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" t="s">
         <v>478</v>
-      </c>
-      <c r="C95" t="s">
-        <v>479</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -6953,10 +6883,10 @@
         <v>45</v>
       </c>
       <c r="P95" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -6964,7 +6894,7 @@
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -6982,10 +6912,10 @@
         <v>45</v>
       </c>
       <c r="P96" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q96" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -6993,10 +6923,10 @@
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -7017,10 +6947,10 @@
         <v>295</v>
       </c>
       <c r="P97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q97" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7028,7 +6958,7 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -7049,10 +6979,10 @@
         <v>295</v>
       </c>
       <c r="P98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q98" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7060,10 +6990,10 @@
         <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -7084,10 +7014,10 @@
         <v>295</v>
       </c>
       <c r="P99" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q99" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7095,10 +7025,10 @@
         <v>137</v>
       </c>
       <c r="B100" t="s">
+        <v>482</v>
+      </c>
+      <c r="C100" t="s">
         <v>483</v>
-      </c>
-      <c r="C100" t="s">
-        <v>484</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -7113,7 +7043,7 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L100" t="s">
         <v>57</v>
@@ -7122,10 +7052,10 @@
         <v>295</v>
       </c>
       <c r="P100" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7133,11 +7063,11 @@
         <v>138</v>
       </c>
       <c r="B101" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" t="s">
         <v>485</v>
       </c>
-      <c r="C101" t="s">
-        <v>486</v>
-      </c>
       <c r="D101" t="s">
         <v>4</v>
       </c>
@@ -7157,10 +7087,10 @@
         <v>295</v>
       </c>
       <c r="P101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q101" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -7168,10 +7098,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" t="s">
         <v>487</v>
-      </c>
-      <c r="C102" t="s">
-        <v>488</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -7192,10 +7122,10 @@
         <v>295</v>
       </c>
       <c r="P102" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q102" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -7203,10 +7133,10 @@
         <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -7227,10 +7157,10 @@
         <v>295</v>
       </c>
       <c r="P103" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q103" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -7238,10 +7168,10 @@
         <v>141</v>
       </c>
       <c r="B104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" t="s">
         <v>490</v>
-      </c>
-      <c r="C104" t="s">
-        <v>491</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -7262,10 +7192,10 @@
         <v>295</v>
       </c>
       <c r="P104" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q104" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -7273,10 +7203,10 @@
         <v>142</v>
       </c>
       <c r="B105" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" t="s">
         <v>493</v>
-      </c>
-      <c r="C105" t="s">
-        <v>494</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -7297,10 +7227,10 @@
         <v>295</v>
       </c>
       <c r="P105" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q105" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -7308,10 +7238,10 @@
         <v>143</v>
       </c>
       <c r="B106" t="s">
+        <v>494</v>
+      </c>
+      <c r="C106" t="s">
         <v>495</v>
-      </c>
-      <c r="C106" t="s">
-        <v>496</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -7332,10 +7262,10 @@
         <v>295</v>
       </c>
       <c r="P106" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q106" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -7343,10 +7273,10 @@
         <v>144</v>
       </c>
       <c r="B107" t="s">
+        <v>496</v>
+      </c>
+      <c r="C107" t="s">
         <v>497</v>
-      </c>
-      <c r="C107" t="s">
-        <v>498</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -7367,10 +7297,10 @@
         <v>295</v>
       </c>
       <c r="P107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -7378,10 +7308,10 @@
         <v>145</v>
       </c>
       <c r="B108" t="s">
+        <v>498</v>
+      </c>
+      <c r="C108" t="s">
         <v>499</v>
-      </c>
-      <c r="C108" t="s">
-        <v>500</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -7402,10 +7332,10 @@
         <v>295</v>
       </c>
       <c r="P108" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -7413,10 +7343,10 @@
         <v>146</v>
       </c>
       <c r="B109" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" t="s">
         <v>501</v>
-      </c>
-      <c r="C109" t="s">
-        <v>502</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -7437,10 +7367,10 @@
         <v>295</v>
       </c>
       <c r="P109" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q109" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -7448,10 +7378,10 @@
         <v>147</v>
       </c>
       <c r="B110" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110" t="s">
         <v>503</v>
-      </c>
-      <c r="C110" t="s">
-        <v>504</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -7472,10 +7402,10 @@
         <v>295</v>
       </c>
       <c r="P110" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q110" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -7483,10 +7413,10 @@
         <v>148</v>
       </c>
       <c r="B111" t="s">
+        <v>504</v>
+      </c>
+      <c r="C111" t="s">
         <v>505</v>
-      </c>
-      <c r="C111" t="s">
-        <v>506</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -7507,10 +7437,10 @@
         <v>295</v>
       </c>
       <c r="P111" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q111" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -7518,10 +7448,10 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
+        <v>506</v>
+      </c>
+      <c r="C112" t="s">
         <v>507</v>
-      </c>
-      <c r="C112" t="s">
-        <v>508</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -7542,10 +7472,10 @@
         <v>295</v>
       </c>
       <c r="P112" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q112" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
@@ -7553,10 +7483,10 @@
         <v>150</v>
       </c>
       <c r="B113" t="s">
+        <v>508</v>
+      </c>
+      <c r="C113" t="s">
         <v>509</v>
-      </c>
-      <c r="C113" t="s">
-        <v>510</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -7577,10 +7507,10 @@
         <v>295</v>
       </c>
       <c r="P113" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q113" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
@@ -7588,11 +7518,11 @@
         <v>151</v>
       </c>
       <c r="B114" t="s">
+        <v>510</v>
+      </c>
+      <c r="C114" t="s">
         <v>511</v>
       </c>
-      <c r="C114" t="s">
-        <v>512</v>
-      </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
@@ -7612,10 +7542,10 @@
         <v>295</v>
       </c>
       <c r="P114" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q114" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
@@ -7623,7 +7553,7 @@
         <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -7644,10 +7574,10 @@
         <v>295</v>
       </c>
       <c r="P115" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R115" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
@@ -7655,7 +7585,7 @@
         <v>220</v>
       </c>
       <c r="B116" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -7676,10 +7606,10 @@
         <v>295</v>
       </c>
       <c r="P116" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R116" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
@@ -7687,7 +7617,7 @@
         <v>162</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -7708,10 +7638,10 @@
         <v>295</v>
       </c>
       <c r="P117" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R117" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
@@ -7719,10 +7649,10 @@
         <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C118" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -7743,10 +7673,10 @@
         <v>295</v>
       </c>
       <c r="P118" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R118" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
@@ -7754,10 +7684,10 @@
         <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C119" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -7778,10 +7708,10 @@
         <v>295</v>
       </c>
       <c r="P119" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R119" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -7789,10 +7719,10 @@
         <v>262</v>
       </c>
       <c r="B120" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C120" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -7813,10 +7743,10 @@
         <v>295</v>
       </c>
       <c r="P120" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R120" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -7824,10 +7754,10 @@
         <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C121" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -7848,10 +7778,10 @@
         <v>295</v>
       </c>
       <c r="P121" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R121" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
@@ -7859,10 +7789,10 @@
         <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C122" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -7883,10 +7813,10 @@
         <v>295</v>
       </c>
       <c r="P122" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R122" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -7894,10 +7824,10 @@
         <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C123" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -7918,10 +7848,10 @@
         <v>295</v>
       </c>
       <c r="P123" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R123" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -7929,10 +7859,10 @@
         <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C124" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -7953,10 +7883,10 @@
         <v>295</v>
       </c>
       <c r="P124" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R124" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -7964,10 +7894,10 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -7988,10 +7918,10 @@
         <v>295</v>
       </c>
       <c r="P125" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R125" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -7999,10 +7929,10 @@
         <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C126" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -8023,10 +7953,10 @@
         <v>295</v>
       </c>
       <c r="P126" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R126" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
@@ -8034,10 +7964,10 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C127" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -8058,10 +7988,10 @@
         <v>295</v>
       </c>
       <c r="P127" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R127" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
@@ -8069,10 +7999,10 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C128" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -8093,10 +8023,10 @@
         <v>295</v>
       </c>
       <c r="P128" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R128" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
@@ -8104,10 +8034,10 @@
         <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C129" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -8128,10 +8058,10 @@
         <v>295</v>
       </c>
       <c r="P129" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R129" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
@@ -8139,10 +8069,10 @@
         <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C130" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -8163,10 +8093,10 @@
         <v>295</v>
       </c>
       <c r="P130" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R130" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
@@ -8174,10 +8104,10 @@
         <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C131" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -8198,10 +8128,10 @@
         <v>295</v>
       </c>
       <c r="P131" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R131" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -8209,10 +8139,10 @@
         <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C132" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -8233,10 +8163,10 @@
         <v>295</v>
       </c>
       <c r="P132" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R132" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
@@ -8244,10 +8174,10 @@
         <v>275</v>
       </c>
       <c r="B133" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C133" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -8268,10 +8198,10 @@
         <v>295</v>
       </c>
       <c r="P133" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R133" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
@@ -8279,10 +8209,10 @@
         <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C134" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -8303,7 +8233,7 @@
         <v>295</v>
       </c>
       <c r="P134" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
@@ -8311,10 +8241,10 @@
         <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C135" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -8335,10 +8265,10 @@
         <v>295</v>
       </c>
       <c r="P135" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R135" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
@@ -8346,10 +8276,10 @@
         <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C136" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -8370,13 +8300,13 @@
         <v>295</v>
       </c>
       <c r="P136" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q136" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R136" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
@@ -8384,7 +8314,7 @@
         <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -8405,13 +8335,13 @@
         <v>295</v>
       </c>
       <c r="P137" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q137" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R137" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
@@ -8419,7 +8349,7 @@
         <v>183</v>
       </c>
       <c r="B138" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -8440,13 +8370,13 @@
         <v>295</v>
       </c>
       <c r="P138" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q138" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R138" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
@@ -8454,7 +8384,7 @@
         <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -8475,13 +8405,13 @@
         <v>295</v>
       </c>
       <c r="P139" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q139" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R139" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
@@ -8489,7 +8419,7 @@
         <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -8510,13 +8440,13 @@
         <v>295</v>
       </c>
       <c r="P140" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q140" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R140" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
@@ -8524,7 +8454,7 @@
         <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -8545,13 +8475,13 @@
         <v>295</v>
       </c>
       <c r="P141" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R141" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
@@ -8559,7 +8489,7 @@
         <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -8580,13 +8510,13 @@
         <v>295</v>
       </c>
       <c r="P142" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q142" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R142" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
@@ -8594,7 +8524,7 @@
         <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -8615,13 +8545,13 @@
         <v>295</v>
       </c>
       <c r="P143" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q143" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R143" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
@@ -8629,7 +8559,7 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -8650,13 +8580,13 @@
         <v>295</v>
       </c>
       <c r="P144" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q144" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R144" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -8664,7 +8594,7 @@
         <v>195</v>
       </c>
       <c r="B145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -8685,13 +8615,13 @@
         <v>295</v>
       </c>
       <c r="P145" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q145" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R145" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
@@ -8699,7 +8629,7 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -8720,13 +8650,13 @@
         <v>295</v>
       </c>
       <c r="P146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q146" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R146" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
@@ -8734,7 +8664,7 @@
         <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -8755,13 +8685,13 @@
         <v>295</v>
       </c>
       <c r="P147" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q147" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R147" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -8769,7 +8699,7 @@
         <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -8790,13 +8720,13 @@
         <v>295</v>
       </c>
       <c r="P148" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q148" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R148" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
@@ -8804,7 +8734,7 @@
         <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -8825,13 +8755,13 @@
         <v>295</v>
       </c>
       <c r="P149" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q149" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R149" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
@@ -8839,7 +8769,7 @@
         <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -8860,13 +8790,13 @@
         <v>295</v>
       </c>
       <c r="P150" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q150" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R150" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -8874,7 +8804,7 @@
         <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -8895,13 +8825,13 @@
         <v>295</v>
       </c>
       <c r="P151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q151" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R151" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -8909,10 +8839,10 @@
         <v>164</v>
       </c>
       <c r="B152" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C152" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -8933,10 +8863,10 @@
         <v>295</v>
       </c>
       <c r="P152" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R152" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
@@ -8944,10 +8874,10 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C153" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -8968,10 +8898,10 @@
         <v>295</v>
       </c>
       <c r="P153" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R153" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
@@ -8979,10 +8909,10 @@
         <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C154" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -9003,10 +8933,10 @@
         <v>295</v>
       </c>
       <c r="P154" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R154" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -9014,10 +8944,10 @@
         <v>199</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C155" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -9038,10 +8968,10 @@
         <v>295</v>
       </c>
       <c r="P155" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R155" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -9049,10 +8979,10 @@
         <v>256</v>
       </c>
       <c r="B156" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C156" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -9073,10 +9003,10 @@
         <v>295</v>
       </c>
       <c r="P156" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R156" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -9084,10 +9014,10 @@
         <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -9108,10 +9038,10 @@
         <v>295</v>
       </c>
       <c r="P157" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R157" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
@@ -9119,10 +9049,10 @@
         <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C158" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -9143,10 +9073,10 @@
         <v>295</v>
       </c>
       <c r="P158" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R158" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="17" x14ac:dyDescent="0.25">
@@ -9154,10 +9084,10 @@
         <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -9178,10 +9108,10 @@
         <v>295</v>
       </c>
       <c r="P159" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R159" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
@@ -9189,10 +9119,10 @@
         <v>187</v>
       </c>
       <c r="B160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -9213,10 +9143,10 @@
         <v>295</v>
       </c>
       <c r="P160" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R160" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
@@ -9224,7 +9154,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -9245,10 +9175,10 @@
         <v>295</v>
       </c>
       <c r="P161" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R161" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
@@ -9256,7 +9186,7 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -9277,10 +9207,10 @@
         <v>295</v>
       </c>
       <c r="P162" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R162" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
@@ -9288,10 +9218,10 @@
         <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C163" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -9312,13 +9242,13 @@
         <v>295</v>
       </c>
       <c r="P163" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q163" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R163" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
@@ -9326,7 +9256,7 @@
         <v>219</v>
       </c>
       <c r="B164" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -9347,13 +9277,13 @@
         <v>295</v>
       </c>
       <c r="P164" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R164" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
@@ -9361,7 +9291,7 @@
         <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -9382,13 +9312,13 @@
         <v>295</v>
       </c>
       <c r="P165" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q165" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R165" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
@@ -9396,7 +9326,7 @@
         <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -9417,13 +9347,13 @@
         <v>295</v>
       </c>
       <c r="P166" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q166" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R166" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
@@ -9431,10 +9361,10 @@
         <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C167" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -9455,10 +9385,10 @@
         <v>295</v>
       </c>
       <c r="P167" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R167" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
@@ -9466,10 +9396,10 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C168" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -9490,10 +9420,10 @@
         <v>295</v>
       </c>
       <c r="P168" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R168" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
@@ -9501,10 +9431,10 @@
         <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C169" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -9525,10 +9455,10 @@
         <v>295</v>
       </c>
       <c r="P169" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R169" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
@@ -9536,10 +9466,10 @@
         <v>234</v>
       </c>
       <c r="B170" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C170" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -9560,10 +9490,10 @@
         <v>295</v>
       </c>
       <c r="P170" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R170" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
@@ -9571,10 +9501,10 @@
         <v>153</v>
       </c>
       <c r="B171" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C171" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -9595,10 +9525,10 @@
         <v>295</v>
       </c>
       <c r="P171" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R171" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -9606,10 +9536,10 @@
         <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C172" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -9630,10 +9560,10 @@
         <v>295</v>
       </c>
       <c r="P172" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R172" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
@@ -9641,10 +9571,10 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C173" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -9665,10 +9595,10 @@
         <v>295</v>
       </c>
       <c r="P173" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R173" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -9676,10 +9606,10 @@
         <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C174" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -9700,7 +9630,7 @@
         <v>295</v>
       </c>
       <c r="P174" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -9708,10 +9638,10 @@
         <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C175" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -9732,10 +9662,10 @@
         <v>295</v>
       </c>
       <c r="P175" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R175" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -9743,10 +9673,10 @@
         <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C176" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -9767,10 +9697,10 @@
         <v>295</v>
       </c>
       <c r="P176" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R176" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
@@ -9778,10 +9708,10 @@
         <v>211</v>
       </c>
       <c r="B177" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C177" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -9802,10 +9732,10 @@
         <v>295</v>
       </c>
       <c r="P177" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R177" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
@@ -9813,10 +9743,10 @@
         <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C178" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -9837,10 +9767,10 @@
         <v>295</v>
       </c>
       <c r="P178" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R178" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
@@ -9848,11 +9778,11 @@
         <v>258</v>
       </c>
       <c r="B179" t="s">
+        <v>683</v>
+      </c>
+      <c r="C179" t="s">
         <v>684</v>
       </c>
-      <c r="C179" t="s">
-        <v>685</v>
-      </c>
       <c r="D179" t="s">
         <v>4</v>
       </c>
@@ -9872,10 +9802,10 @@
         <v>295</v>
       </c>
       <c r="P179" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R179" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
@@ -9883,10 +9813,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C180" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -9907,10 +9837,10 @@
         <v>295</v>
       </c>
       <c r="P180" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R180" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
@@ -9918,10 +9848,10 @@
         <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C181" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -9942,13 +9872,13 @@
         <v>295</v>
       </c>
       <c r="P181" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q181" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R181" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
@@ -9956,7 +9886,7 @@
         <v>156</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -9977,13 +9907,13 @@
         <v>295</v>
       </c>
       <c r="P182" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q182" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R182" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
@@ -9991,7 +9921,7 @@
         <v>237</v>
       </c>
       <c r="B183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -10012,13 +9942,13 @@
         <v>295</v>
       </c>
       <c r="P183" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q183" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R183" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
@@ -10026,7 +9956,7 @@
         <v>158</v>
       </c>
       <c r="B184" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -10047,13 +9977,13 @@
         <v>295</v>
       </c>
       <c r="P184" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q184" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R184" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
@@ -10061,7 +9991,7 @@
         <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -10082,13 +10012,13 @@
         <v>295</v>
       </c>
       <c r="P185" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q185" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R185" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
@@ -10096,7 +10026,7 @@
         <v>260</v>
       </c>
       <c r="B186" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -10117,13 +10047,13 @@
         <v>295</v>
       </c>
       <c r="P186" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q186" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R186" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
@@ -10131,7 +10061,7 @@
         <v>245</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -10152,13 +10082,13 @@
         <v>295</v>
       </c>
       <c r="P187" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q187" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R187" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
@@ -10166,7 +10096,7 @@
         <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -10187,13 +10117,13 @@
         <v>295</v>
       </c>
       <c r="P188" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q188" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R188" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
@@ -10201,7 +10131,7 @@
         <v>242</v>
       </c>
       <c r="B189" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -10222,13 +10152,13 @@
         <v>295</v>
       </c>
       <c r="P189" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q189" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R189" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
@@ -10236,7 +10166,7 @@
         <v>232</v>
       </c>
       <c r="B190" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -10257,13 +10187,13 @@
         <v>295</v>
       </c>
       <c r="P190" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q190" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R190" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
@@ -10271,7 +10201,7 @@
         <v>268</v>
       </c>
       <c r="B191" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -10292,13 +10222,13 @@
         <v>295</v>
       </c>
       <c r="P191" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q191" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R191" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
@@ -10306,7 +10236,7 @@
         <v>271</v>
       </c>
       <c r="B192" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -10327,13 +10257,13 @@
         <v>295</v>
       </c>
       <c r="P192" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q192" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R192" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
@@ -10341,7 +10271,7 @@
         <v>233</v>
       </c>
       <c r="B193" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -10362,13 +10292,13 @@
         <v>295</v>
       </c>
       <c r="P193" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q193" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R193" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
@@ -10376,7 +10306,7 @@
         <v>257</v>
       </c>
       <c r="B194" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -10397,13 +10327,13 @@
         <v>295</v>
       </c>
       <c r="P194" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q194" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R194" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
@@ -10411,7 +10341,7 @@
         <v>261</v>
       </c>
       <c r="B195" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -10432,13 +10362,13 @@
         <v>295</v>
       </c>
       <c r="P195" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q195" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R195" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
@@ -10446,7 +10376,7 @@
         <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
@@ -10467,13 +10397,13 @@
         <v>295</v>
       </c>
       <c r="P196" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q196" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R196" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -10481,7 +10411,7 @@
         <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -10502,13 +10432,13 @@
         <v>295</v>
       </c>
       <c r="P197" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q197" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R197" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
@@ -10516,7 +10446,7 @@
         <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -10537,13 +10467,13 @@
         <v>295</v>
       </c>
       <c r="P198" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q198" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R198" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
@@ -10551,7 +10481,7 @@
         <v>263</v>
       </c>
       <c r="B199" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
@@ -10572,13 +10502,13 @@
         <v>295</v>
       </c>
       <c r="P199" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q199" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R199" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
@@ -10586,7 +10516,7 @@
         <v>215</v>
       </c>
       <c r="B200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
@@ -10607,13 +10537,13 @@
         <v>295</v>
       </c>
       <c r="P200" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q200" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R200" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
@@ -10621,7 +10551,7 @@
         <v>218</v>
       </c>
       <c r="B201" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
@@ -10642,13 +10572,13 @@
         <v>295</v>
       </c>
       <c r="P201" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q201" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R201" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
@@ -10656,7 +10586,7 @@
         <v>251</v>
       </c>
       <c r="B202" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -10677,13 +10607,13 @@
         <v>295</v>
       </c>
       <c r="P202" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q202" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R202" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
@@ -10691,7 +10621,7 @@
         <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -10712,13 +10642,13 @@
         <v>295</v>
       </c>
       <c r="P203" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q203" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R203" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
@@ -10726,7 +10656,7 @@
         <v>266</v>
       </c>
       <c r="B204" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
@@ -10747,13 +10677,13 @@
         <v>295</v>
       </c>
       <c r="P204" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q204" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R204" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
@@ -10761,7 +10691,7 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
@@ -10782,13 +10712,13 @@
         <v>295</v>
       </c>
       <c r="P205" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R205" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
@@ -10796,7 +10726,7 @@
         <v>278</v>
       </c>
       <c r="B206" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -10817,13 +10747,13 @@
         <v>295</v>
       </c>
       <c r="P206" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q206" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R206" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
@@ -10831,7 +10761,7 @@
         <v>270</v>
       </c>
       <c r="B207" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -10852,13 +10782,13 @@
         <v>295</v>
       </c>
       <c r="P207" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q207" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R207" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
@@ -10866,7 +10796,7 @@
         <v>252</v>
       </c>
       <c r="B208" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -10887,13 +10817,13 @@
         <v>295</v>
       </c>
       <c r="P208" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q208" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R208" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
@@ -10901,7 +10831,7 @@
         <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -10922,27 +10852,27 @@
         <v>295</v>
       </c>
       <c r="P209" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q209" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R209" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>740</v>
+      </c>
+      <c r="B210" t="s">
         <v>741</v>
       </c>
-      <c r="B210" t="s">
-        <v>742</v>
-      </c>
       <c r="Q210" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R210" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
@@ -10950,7 +10880,7 @@
         <v>277</v>
       </c>
       <c r="B211" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -10971,13 +10901,13 @@
         <v>295</v>
       </c>
       <c r="P211" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q211" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R211" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
@@ -10985,7 +10915,7 @@
         <v>180</v>
       </c>
       <c r="B212" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -11006,13 +10936,13 @@
         <v>295</v>
       </c>
       <c r="P212" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q212" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R212" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
@@ -11020,10 +10950,10 @@
         <v>189</v>
       </c>
       <c r="B213" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C213" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -11044,10 +10974,10 @@
         <v>295</v>
       </c>
       <c r="P213" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R213" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
@@ -11055,10 +10985,10 @@
         <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C214" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -11079,10 +11009,10 @@
         <v>295</v>
       </c>
       <c r="P214" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R214" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
@@ -11090,10 +11020,10 @@
         <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C215" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -11114,10 +11044,10 @@
         <v>295</v>
       </c>
       <c r="P215" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R215" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
@@ -11125,10 +11055,10 @@
         <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C216" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -11149,10 +11079,10 @@
         <v>295</v>
       </c>
       <c r="P216" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R216" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
@@ -11160,11 +11090,11 @@
         <v>274</v>
       </c>
       <c r="B217" t="s">
+        <v>691</v>
+      </c>
+      <c r="C217" t="s">
         <v>692</v>
       </c>
-      <c r="C217" t="s">
-        <v>693</v>
-      </c>
       <c r="D217" t="s">
         <v>4</v>
       </c>
@@ -11184,10 +11114,10 @@
         <v>295</v>
       </c>
       <c r="P217" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R217" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
@@ -11195,10 +11125,10 @@
         <v>259</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C218" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -11219,10 +11149,10 @@
         <v>295</v>
       </c>
       <c r="P218" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R218" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
@@ -11230,10 +11160,10 @@
         <v>282</v>
       </c>
       <c r="B219" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C219" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
@@ -11254,10 +11184,10 @@
         <v>295</v>
       </c>
       <c r="P219" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R219" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
@@ -11265,10 +11195,10 @@
         <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C220" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
@@ -11289,10 +11219,10 @@
         <v>295</v>
       </c>
       <c r="P220" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R220" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
@@ -11300,10 +11230,10 @@
         <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C221" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D221" t="s">
         <v>4</v>
@@ -11324,10 +11254,10 @@
         <v>295</v>
       </c>
       <c r="P221" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R221" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
@@ -11335,10 +11265,10 @@
         <v>190</v>
       </c>
       <c r="B222" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C222" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -11359,7 +11289,7 @@
         <v>295</v>
       </c>
       <c r="P222" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.2">
@@ -11367,11 +11297,11 @@
         <v>280</v>
       </c>
       <c r="B223" t="s">
+        <v>698</v>
+      </c>
+      <c r="C223" t="s">
         <v>699</v>
       </c>
-      <c r="C223" t="s">
-        <v>700</v>
-      </c>
       <c r="D223" t="s">
         <v>4</v>
       </c>
@@ -11391,10 +11321,10 @@
         <v>295</v>
       </c>
       <c r="P223" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R223" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
@@ -11402,10 +11332,10 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C224" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
@@ -11426,10 +11356,10 @@
         <v>295</v>
       </c>
       <c r="P224" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R224" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.2">
@@ -11437,10 +11367,10 @@
         <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C225" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
@@ -11461,10 +11391,10 @@
         <v>295</v>
       </c>
       <c r="P225" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R225" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.2">
@@ -11472,10 +11402,10 @@
         <v>167</v>
       </c>
       <c r="B226" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C226" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -11496,10 +11426,10 @@
         <v>295</v>
       </c>
       <c r="P226" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R226" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.2">
@@ -11507,10 +11437,10 @@
         <v>254</v>
       </c>
       <c r="B227" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C227" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -11531,10 +11461,10 @@
         <v>295</v>
       </c>
       <c r="P227" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R227" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.2">
@@ -11542,10 +11472,10 @@
         <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C228" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -11566,10 +11496,10 @@
         <v>295</v>
       </c>
       <c r="P228" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R228" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.2">
@@ -11577,10 +11507,10 @@
         <v>273</v>
       </c>
       <c r="B229" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C229" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
@@ -11601,10 +11531,10 @@
         <v>295</v>
       </c>
       <c r="P229" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R229" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
@@ -11612,10 +11542,10 @@
         <v>188</v>
       </c>
       <c r="B230" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C230" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -11636,10 +11566,10 @@
         <v>295</v>
       </c>
       <c r="P230" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R230" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.2">
@@ -11647,10 +11577,10 @@
         <v>168</v>
       </c>
       <c r="B231" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C231" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D231" t="s">
         <v>4</v>
@@ -11671,10 +11601,10 @@
         <v>295</v>
       </c>
       <c r="P231" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R231" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.2">
@@ -11682,10 +11612,10 @@
         <v>171</v>
       </c>
       <c r="B232" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C232" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -11706,13 +11636,13 @@
         <v>295</v>
       </c>
       <c r="P232" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q232" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R232" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
@@ -11720,7 +11650,7 @@
         <v>185</v>
       </c>
       <c r="B233" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
@@ -11741,13 +11671,13 @@
         <v>295</v>
       </c>
       <c r="P233" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q233" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R233" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.2">
@@ -11755,7 +11685,7 @@
         <v>182</v>
       </c>
       <c r="B234" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
@@ -11776,13 +11706,13 @@
         <v>295</v>
       </c>
       <c r="P234" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q234" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R234" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.2">
@@ -11790,7 +11720,7 @@
         <v>177</v>
       </c>
       <c r="B235" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
@@ -11811,13 +11741,13 @@
         <v>295</v>
       </c>
       <c r="P235" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q235" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R235" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.2">
@@ -11825,7 +11755,7 @@
         <v>201</v>
       </c>
       <c r="B236" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D236" t="s">
         <v>4</v>
@@ -11846,13 +11776,13 @@
         <v>295</v>
       </c>
       <c r="P236" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q236" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R236" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
@@ -11860,7 +11790,7 @@
         <v>205</v>
       </c>
       <c r="B237" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D237" t="s">
         <v>4</v>
@@ -11881,13 +11811,13 @@
         <v>295</v>
       </c>
       <c r="P237" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q237" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R237" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.2">
@@ -11895,7 +11825,7 @@
         <v>204</v>
       </c>
       <c r="B238" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D238" t="s">
         <v>4</v>
@@ -11916,13 +11846,13 @@
         <v>295</v>
       </c>
       <c r="P238" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q238" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R238" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.2">
@@ -11930,7 +11860,7 @@
         <v>208</v>
       </c>
       <c r="B239" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
@@ -11951,13 +11881,13 @@
         <v>295</v>
       </c>
       <c r="P239" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q239" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R239" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
@@ -11965,7 +11895,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
@@ -11986,13 +11916,13 @@
         <v>295</v>
       </c>
       <c r="P240" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q240" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R240" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
@@ -12000,7 +11930,7 @@
         <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
@@ -12021,13 +11951,13 @@
         <v>295</v>
       </c>
       <c r="P241" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q241" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R241" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
@@ -12035,7 +11965,7 @@
         <v>227</v>
       </c>
       <c r="B242" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
@@ -12056,13 +11986,13 @@
         <v>295</v>
       </c>
       <c r="P242" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q242" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R242" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
@@ -12070,7 +12000,7 @@
         <v>230</v>
       </c>
       <c r="B243" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
@@ -12091,13 +12021,13 @@
         <v>295</v>
       </c>
       <c r="P243" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q243" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R243" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
@@ -12105,7 +12035,7 @@
         <v>229</v>
       </c>
       <c r="B244" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -12126,13 +12056,13 @@
         <v>295</v>
       </c>
       <c r="P244" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q244" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R244" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
@@ -12140,7 +12070,7 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -12161,13 +12091,13 @@
         <v>295</v>
       </c>
       <c r="P245" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q245" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R245" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
@@ -12175,7 +12105,7 @@
         <v>276</v>
       </c>
       <c r="B246" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
@@ -12196,13 +12126,13 @@
         <v>295</v>
       </c>
       <c r="P246" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q246" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R246" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
@@ -12210,10 +12140,10 @@
         <v>238</v>
       </c>
       <c r="B247" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C247" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
@@ -12234,10 +12164,10 @@
         <v>295</v>
       </c>
       <c r="P247" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R247" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
@@ -12245,10 +12175,10 @@
         <v>202</v>
       </c>
       <c r="B248" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C248" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
@@ -12269,7 +12199,7 @@
         <v>295</v>
       </c>
       <c r="P248" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
@@ -12277,10 +12207,10 @@
         <v>283</v>
       </c>
       <c r="B249" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C249" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D249" t="s">
         <v>4</v>
@@ -12301,10 +12231,10 @@
         <v>295</v>
       </c>
       <c r="P249" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R249" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -12615,10 +12545,10 @@
         <v>314</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -12647,10 +12577,10 @@
         <v>315</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -12673,10 +12603,10 @@
         <v>316</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -12690,10 +12620,10 @@
         <v>114</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -12707,10 +12637,10 @@
         <v>290</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -12724,10 +12654,10 @@
         <v>16</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -12739,10 +12669,10 @@
       </c>
       <c r="E8" s="1"/>
       <c r="K8" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -12754,10 +12684,10 @@
       </c>
       <c r="E9" s="1"/>
       <c r="K9" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12768,10 +12698,10 @@
         <v>16</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682F209C-01DF-4C44-8531-846F45BF48F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BAFF92-5CF6-C644-B2B8-8B37BA58AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>tc={E76275FB-4353-814C-8FBC-49571E8F7BA9}</author>
   </authors>
   <commentList>
-    <comment ref="H90" authorId="0" shapeId="0" xr:uid="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
+    <comment ref="H91" authorId="0" shapeId="0" xr:uid="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="788">
   <si>
     <t>Feature</t>
   </si>
@@ -2438,6 +2438,9 @@
   </si>
   <si>
     <t>Any external libraries linked to the contract during deployment</t>
+  </si>
+  <si>
+    <t>relative_tx_position</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2719,6 +2722,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2906,8 +2913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:R249" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:R249" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:R250" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R250" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{62075696-6E2B-1B48-920A-6B94BA151E11}" name="Feature" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{4EA24793-5FA4-A741-A4DC-6F6B688707FF}" name="Description" dataDxfId="16"/>
@@ -3261,7 +3268,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H90" dT="2024-09-22T14:07:19.10" personId="{8F91579C-77DA-FF4E-B348-A7CC5C13B153}" id="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
+  <threadedComment ref="H91" dT="2024-09-22T14:07:19.10" personId="{8F91579C-77DA-FF4E-B348-A7CC5C13B153}" id="{E76275FB-4353-814C-8FBC-49571E8F7BA9}">
     <text xml:space="preserve">Check these out </text>
   </threadedComment>
 </ThreadedComments>
@@ -3269,13 +3276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
-  <dimension ref="A1:R249"/>
+  <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="J228" sqref="J228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3653,7 +3660,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
@@ -4678,7 +4685,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -4766,7 +4773,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>57</v>
       </c>
@@ -4854,7 +4861,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>759</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>760</v>
       </c>
@@ -4918,7 +4925,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>761</v>
       </c>
@@ -4950,7 +4957,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>762</v>
       </c>
@@ -4982,7 +4989,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>771</v>
       </c>
@@ -5014,7 +5021,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>772</v>
       </c>
@@ -5049,79 +5056,78 @@
         <v>743</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="R43" s="24"/>
+    </row>
+    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>777</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>778</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C44" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>720</v>
-      </c>
-      <c r="P43" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>780</v>
-      </c>
-      <c r="B44" t="s">
-        <v>782</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
       </c>
       <c r="E44" t="s">
         <v>298</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
+      <c r="I44" t="s">
+        <v>720</v>
+      </c>
       <c r="L44" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P44" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q44" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B45" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -5130,62 +5136,59 @@
         <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
         <v>52</v>
       </c>
       <c r="P45" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>781</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
-      </c>
-      <c r="C46" t="s">
-        <v>403</v>
+        <v>783</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>784</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>112</v>
       </c>
-      <c r="K46" t="s">
-        <v>108</v>
-      </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P46" t="s">
         <v>738</v>
       </c>
-      <c r="Q46" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>404</v>
       </c>
       <c r="C47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -5212,15 +5215,15 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -5234,9 +5237,6 @@
       <c r="H48" t="s">
         <v>112</v>
       </c>
-      <c r="I48" t="s">
-        <v>718</v>
-      </c>
       <c r="K48" t="s">
         <v>108</v>
       </c>
@@ -5252,10 +5252,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>405</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -5287,13 +5290,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -5325,13 +5325,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -5363,13 +5363,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -5401,13 +5401,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -5421,6 +5421,9 @@
       <c r="H53" t="s">
         <v>112</v>
       </c>
+      <c r="I53" t="s">
+        <v>718</v>
+      </c>
       <c r="K53" t="s">
         <v>108</v>
       </c>
@@ -5436,13 +5439,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -5471,13 +5474,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -5506,13 +5509,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -5541,13 +5544,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -5567,9 +5570,6 @@
       <c r="L57" t="s">
         <v>44</v>
       </c>
-      <c r="O57" t="s">
-        <v>444</v>
-      </c>
       <c r="P57" t="s">
         <v>738</v>
       </c>
@@ -5579,13 +5579,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -5605,6 +5605,9 @@
       <c r="L58" t="s">
         <v>44</v>
       </c>
+      <c r="O58" t="s">
+        <v>444</v>
+      </c>
       <c r="P58" t="s">
         <v>738</v>
       </c>
@@ -5614,13 +5617,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -5649,13 +5652,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -5684,13 +5687,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -5719,13 +5722,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -5754,13 +5757,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -5789,13 +5792,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -5824,13 +5827,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -5839,13 +5842,10 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s">
-        <v>731</v>
+        <v>112</v>
       </c>
       <c r="K65" t="s">
         <v>108</v>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C66" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -5880,10 +5880,10 @@
         <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="K66" t="s">
         <v>108</v>
@@ -5900,13 +5900,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C67" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -5938,13 +5938,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -5976,10 +5976,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="C69" t="s">
+        <v>429</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -6011,13 +6014,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>431</v>
-      </c>
-      <c r="C70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -6049,13 +6049,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -6087,13 +6087,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -6125,13 +6125,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>435</v>
       </c>
       <c r="C73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -6163,13 +6163,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -6201,13 +6201,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C75" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -6239,13 +6239,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C76" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -6277,31 +6277,34 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C77" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>728</v>
+        <v>719</v>
+      </c>
+      <c r="K77" t="s">
+        <v>108</v>
       </c>
       <c r="L77" t="s">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="P77" t="s">
         <v>738</v>
@@ -6312,22 +6315,22 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
@@ -6336,7 +6339,7 @@
         <v>728</v>
       </c>
       <c r="L78" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="P78" t="s">
         <v>738</v>
@@ -6347,13 +6350,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C79" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -6362,10 +6365,13 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>728</v>
       </c>
       <c r="L79" t="s">
         <v>45</v>
@@ -6379,13 +6385,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -6411,13 +6417,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -6443,13 +6449,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C82" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -6475,13 +6481,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="C83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -6498,9 +6504,6 @@
       <c r="L83" t="s">
         <v>45</v>
       </c>
-      <c r="O83" t="s">
-        <v>444</v>
-      </c>
       <c r="P83" t="s">
         <v>738</v>
       </c>
@@ -6510,13 +6513,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -6525,17 +6528,17 @@
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s">
-        <v>728</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
         <v>45</v>
       </c>
+      <c r="O84" t="s">
+        <v>444</v>
+      </c>
       <c r="P84" t="s">
         <v>738</v>
       </c>
@@ -6545,13 +6548,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -6580,10 +6583,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>463</v>
+      </c>
+      <c r="C86" t="s">
+        <v>464</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -6592,10 +6598,13 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>728</v>
       </c>
       <c r="L86" t="s">
         <v>45</v>
@@ -6609,10 +6618,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -6638,13 +6647,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>468</v>
-      </c>
-      <c r="C88" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -6653,13 +6659,10 @@
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s">
-        <v>728</v>
+        <v>112</v>
       </c>
       <c r="L88" t="s">
         <v>45</v>
@@ -6673,10 +6676,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="C89" t="s">
+        <v>467</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -6685,10 +6691,13 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>728</v>
       </c>
       <c r="L89" t="s">
         <v>45</v>
@@ -6702,13 +6711,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>470</v>
-      </c>
-      <c r="C90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -6717,13 +6723,10 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" t="s">
-        <v>719</v>
+        <v>112</v>
       </c>
       <c r="L90" t="s">
         <v>45</v>
@@ -6737,13 +6740,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C91" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -6772,7 +6775,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>472</v>
+      </c>
+      <c r="C92" t="s">
+        <v>473</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -6781,10 +6790,13 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>719</v>
       </c>
       <c r="L92" t="s">
         <v>45</v>
@@ -6798,13 +6810,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" t="s">
-        <v>474</v>
-      </c>
-      <c r="C93" t="s">
-        <v>475</v>
+        <v>129</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -6816,7 +6822,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L93" t="s">
         <v>45</v>
@@ -6830,10 +6836,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>474</v>
       </c>
       <c r="C94" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -6845,7 +6854,7 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L94" t="s">
         <v>45</v>
@@ -6859,13 +6868,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" t="s">
-        <v>477</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -6891,10 +6897,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="C96" t="s">
+        <v>478</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -6920,31 +6929,25 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
-      </c>
-      <c r="C97" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L97" t="s">
-        <v>57</v>
-      </c>
-      <c r="O97" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="P97" t="s">
         <v>738</v>
@@ -6955,10 +6958,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="C98" t="s">
+        <v>480</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -6987,13 +6993,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
-      </c>
-      <c r="C99" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -7022,13 +7025,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -7040,10 +7043,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" t="s">
-        <v>720</v>
+        <v>112</v>
       </c>
       <c r="L100" t="s">
         <v>57</v>
@@ -7060,13 +7060,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -7078,7 +7078,10 @@
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>720</v>
       </c>
       <c r="L101" t="s">
         <v>57</v>
@@ -7095,13 +7098,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C102" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -7113,7 +7116,7 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L102" t="s">
         <v>57</v>
@@ -7130,13 +7133,13 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -7165,13 +7168,13 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -7200,13 +7203,13 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -7235,13 +7238,13 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C106" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -7270,13 +7273,13 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -7305,13 +7308,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C108" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -7340,13 +7343,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C109" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -7375,13 +7378,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C110" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -7410,13 +7413,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -7445,13 +7448,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B112" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C112" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -7480,13 +7483,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C113" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -7515,13 +7518,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C114" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -7533,7 +7536,7 @@
         <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L114" t="s">
         <v>57</v>
@@ -7550,10 +7553,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>544</v>
+        <v>510</v>
+      </c>
+      <c r="C115" t="s">
+        <v>511</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -7576,16 +7582,16 @@
       <c r="P115" t="s">
         <v>738</v>
       </c>
-      <c r="R115" t="s">
-        <v>746</v>
+      <c r="Q115" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -7609,15 +7615,15 @@
         <v>738</v>
       </c>
       <c r="R116" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>522</v>
+        <v>220</v>
+      </c>
+      <c r="B117" t="s">
+        <v>580</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -7641,18 +7647,15 @@
         <v>738</v>
       </c>
       <c r="R117" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>221</v>
-      </c>
-      <c r="B118" t="s">
-        <v>581</v>
-      </c>
-      <c r="C118" t="s">
-        <v>642</v>
+        <v>162</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>522</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -7676,18 +7679,18 @@
         <v>738</v>
       </c>
       <c r="R118" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="C119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -7711,18 +7714,18 @@
         <v>738</v>
       </c>
       <c r="R119" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="C120" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -7746,18 +7749,18 @@
         <v>738</v>
       </c>
       <c r="R120" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="B121" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="C121" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -7781,18 +7784,18 @@
         <v>738</v>
       </c>
       <c r="R121" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>637</v>
+        <v>536</v>
       </c>
       <c r="C122" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -7821,13 +7824,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="B123" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="C123" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -7851,18 +7854,18 @@
         <v>738</v>
       </c>
       <c r="R123" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="B124" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="C124" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -7891,13 +7894,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C125" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -7926,13 +7929,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -7961,13 +7964,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C127" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -7996,13 +7999,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="C128" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -8031,13 +8034,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="C129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -8066,13 +8069,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B130" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="C130" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -8096,18 +8099,18 @@
         <v>738</v>
       </c>
       <c r="R130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B131" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="C131" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -8131,18 +8134,18 @@
         <v>738</v>
       </c>
       <c r="R131" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="C132" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -8171,13 +8174,13 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B133" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C133" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -8206,13 +8209,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C134" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -8234,17 +8237,20 @@
       </c>
       <c r="P134" t="s">
         <v>738</v>
+      </c>
+      <c r="R134" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="C135" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -8266,20 +8272,17 @@
       </c>
       <c r="P135" t="s">
         <v>738</v>
-      </c>
-      <c r="R135" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C136" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -8302,19 +8305,19 @@
       <c r="P136" t="s">
         <v>738</v>
       </c>
-      <c r="Q136" t="s">
-        <v>744</v>
-      </c>
       <c r="R136" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="C137" t="s">
+        <v>660</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -8346,10 +8349,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B138" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -8381,10 +8384,10 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -8416,10 +8419,10 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -8451,10 +8454,10 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -8486,10 +8489,10 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -8521,10 +8524,10 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -8556,10 +8559,10 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -8591,10 +8594,10 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -8626,10 +8629,10 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B146" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -8661,10 +8664,10 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -8696,10 +8699,10 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -8731,10 +8734,10 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -8766,10 +8769,10 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -8801,10 +8804,10 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -8836,13 +8839,10 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>524</v>
-      </c>
-      <c r="C152" t="s">
-        <v>661</v>
+        <v>585</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -8865,19 +8865,22 @@
       <c r="P152" t="s">
         <v>738</v>
       </c>
+      <c r="Q152" t="s">
+        <v>744</v>
+      </c>
       <c r="R152" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C153" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -8901,18 +8904,18 @@
         <v>738</v>
       </c>
       <c r="R153" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="C154" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -8936,18 +8939,18 @@
         <v>738</v>
       </c>
       <c r="R154" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B155" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C155" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -8971,18 +8974,18 @@
         <v>738</v>
       </c>
       <c r="R155" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="B156" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
       <c r="C156" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -9006,18 +9009,18 @@
         <v>738</v>
       </c>
       <c r="R156" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B157" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C157" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -9041,53 +9044,53 @@
         <v>738</v>
       </c>
       <c r="R157" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>249</v>
+      </c>
+      <c r="B158" t="s">
+        <v>609</v>
+      </c>
+      <c r="C158" t="s">
+        <v>666</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>292</v>
+      </c>
+      <c r="G158" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" t="s">
+        <v>113</v>
+      </c>
+      <c r="L158" t="s">
+        <v>57</v>
+      </c>
+      <c r="O158" t="s">
+        <v>295</v>
+      </c>
+      <c r="P158" t="s">
+        <v>738</v>
+      </c>
+      <c r="R158" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>200</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>560</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>667</v>
-      </c>
-      <c r="D158" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" t="s">
-        <v>292</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158" t="s">
-        <v>113</v>
-      </c>
-      <c r="L158" t="s">
-        <v>57</v>
-      </c>
-      <c r="O158" t="s">
-        <v>295</v>
-      </c>
-      <c r="P158" t="s">
-        <v>738</v>
-      </c>
-      <c r="R158" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="17" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159" t="s">
-        <v>514</v>
-      </c>
-      <c r="C159" t="s">
-        <v>668</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -9114,15 +9117,15 @@
         <v>756</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C160" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -9146,15 +9149,18 @@
         <v>738</v>
       </c>
       <c r="R160" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
-        <v>526</v>
+        <v>547</v>
+      </c>
+      <c r="C161" t="s">
+        <v>669</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -9183,10 +9189,10 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -9215,13 +9221,10 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>546</v>
-      </c>
-      <c r="C163" t="s">
-        <v>670</v>
+        <v>517</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -9244,19 +9247,19 @@
       <c r="P163" t="s">
         <v>738</v>
       </c>
-      <c r="Q163" t="s">
-        <v>744</v>
-      </c>
       <c r="R163" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>579</v>
+        <v>546</v>
+      </c>
+      <c r="C164" t="s">
+        <v>670</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -9323,10 +9326,10 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B166" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -9358,13 +9361,10 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B167" t="s">
-        <v>551</v>
-      </c>
-      <c r="C167" t="s">
-        <v>671</v>
+        <v>577</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -9386,6 +9386,9 @@
       </c>
       <c r="P167" t="s">
         <v>738</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>744</v>
       </c>
       <c r="R167" t="s">
         <v>750</v>
@@ -9393,13 +9396,13 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C168" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -9423,18 +9426,18 @@
         <v>738</v>
       </c>
       <c r="R168" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="C169" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -9458,18 +9461,18 @@
         <v>738</v>
       </c>
       <c r="R169" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C170" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -9493,18 +9496,18 @@
         <v>738</v>
       </c>
       <c r="R170" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="C171" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -9533,13 +9536,13 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="B172" t="s">
-        <v>626</v>
+        <v>515</v>
       </c>
       <c r="C172" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -9568,13 +9571,13 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="C173" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -9598,18 +9601,18 @@
         <v>738</v>
       </c>
       <c r="R173" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="C174" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -9631,17 +9634,20 @@
       </c>
       <c r="P174" t="s">
         <v>738</v>
+      </c>
+      <c r="R174" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B175" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C175" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -9663,20 +9669,17 @@
       </c>
       <c r="P175" t="s">
         <v>738</v>
-      </c>
-      <c r="R175" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C176" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -9700,18 +9703,18 @@
         <v>738</v>
       </c>
       <c r="R176" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B177" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C177" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -9735,18 +9738,18 @@
         <v>738</v>
       </c>
       <c r="R177" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C178" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -9770,18 +9773,18 @@
         <v>738</v>
       </c>
       <c r="R178" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B179" t="s">
-        <v>683</v>
+        <v>595</v>
       </c>
       <c r="C179" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -9805,18 +9808,18 @@
         <v>738</v>
       </c>
       <c r="R179" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>538</v>
+        <v>683</v>
       </c>
       <c r="C180" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -9845,13 +9848,13 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="C181" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -9874,19 +9877,19 @@
       <c r="P181" t="s">
         <v>738</v>
       </c>
-      <c r="Q181" t="s">
-        <v>744</v>
-      </c>
       <c r="R181" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>512</v>
+      </c>
+      <c r="C182" t="s">
+        <v>686</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -9918,10 +9921,10 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="B183" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -9953,10 +9956,10 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -9988,10 +9991,10 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="B185" t="s">
-        <v>606</v>
+        <v>518</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -10023,10 +10026,10 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -10058,10 +10061,10 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B187" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -10093,10 +10096,10 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -10128,10 +10131,10 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B189" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -10163,10 +10166,10 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B190" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -10198,10 +10201,10 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="B191" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -10233,10 +10236,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B192" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -10268,10 +10271,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -10303,10 +10306,10 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -10338,10 +10341,10 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B195" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -10373,10 +10376,10 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="B196" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
@@ -10408,10 +10411,10 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -10443,10 +10446,10 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -10478,10 +10481,10 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
@@ -10513,10 +10516,10 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B200" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
@@ -10548,10 +10551,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
@@ -10583,10 +10586,10 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B202" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -10618,10 +10621,10 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B203" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -10653,10 +10656,10 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B204" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
@@ -10688,10 +10691,10 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B205" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
@@ -10723,10 +10726,10 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -10758,10 +10761,10 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B207" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -10793,10 +10796,10 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -10828,10 +10831,10 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="B209" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -10863,10 +10866,31 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>740</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>741</v>
+        <v>573</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>292</v>
+      </c>
+      <c r="G210" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" t="s">
+        <v>113</v>
+      </c>
+      <c r="L210" t="s">
+        <v>57</v>
+      </c>
+      <c r="O210" t="s">
+        <v>295</v>
+      </c>
+      <c r="P210" t="s">
+        <v>738</v>
       </c>
       <c r="Q210" t="s">
         <v>744</v>
@@ -10877,10 +10901,10 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>277</v>
+        <v>740</v>
       </c>
       <c r="B211" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -10912,10 +10936,10 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="B212" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -10947,13 +10971,10 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B213" t="s">
-        <v>549</v>
-      </c>
-      <c r="C213" t="s">
-        <v>687</v>
+        <v>540</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -10976,19 +10997,22 @@
       <c r="P213" t="s">
         <v>738</v>
       </c>
+      <c r="Q213" t="s">
+        <v>744</v>
+      </c>
       <c r="R213" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="B214" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="C214" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -11012,18 +11036,18 @@
         <v>738</v>
       </c>
       <c r="R214" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C215" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -11052,13 +11076,13 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="C216" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -11082,18 +11106,18 @@
         <v>738</v>
       </c>
       <c r="R216" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="B217" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="C217" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
@@ -11117,18 +11141,18 @@
         <v>738</v>
       </c>
       <c r="R217" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B218" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="C218" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -11152,18 +11176,18 @@
         <v>738</v>
       </c>
       <c r="R218" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B219" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
@@ -11187,18 +11211,18 @@
         <v>738</v>
       </c>
       <c r="R219" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="B220" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
       <c r="C220" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
@@ -11222,18 +11246,18 @@
         <v>738</v>
       </c>
       <c r="R220" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B221" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C221" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D221" t="s">
         <v>4</v>
@@ -11257,18 +11281,18 @@
         <v>738</v>
       </c>
       <c r="R221" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C222" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -11290,17 +11314,20 @@
       </c>
       <c r="P222" t="s">
         <v>738</v>
+      </c>
+      <c r="R222" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="B223" t="s">
-        <v>698</v>
+        <v>550</v>
       </c>
       <c r="C223" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
@@ -11322,20 +11349,17 @@
       </c>
       <c r="P223" t="s">
         <v>738</v>
-      </c>
-      <c r="R223" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B224" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C224" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
@@ -11364,13 +11388,13 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="C225" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D225" t="s">
         <v>4</v>
@@ -11394,18 +11418,18 @@
         <v>738</v>
       </c>
       <c r="R225" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B226" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
       <c r="C226" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D226" t="s">
         <v>4</v>
@@ -11429,18 +11453,18 @@
         <v>738</v>
       </c>
       <c r="R226" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="B227" t="s">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="C227" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -11464,18 +11488,18 @@
         <v>738</v>
       </c>
       <c r="R227" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B228" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="C228" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -11499,18 +11523,18 @@
         <v>738</v>
       </c>
       <c r="R228" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="B229" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="C229" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D229" t="s">
         <v>4</v>
@@ -11534,18 +11558,18 @@
         <v>738</v>
       </c>
       <c r="R229" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="B230" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="C230" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -11569,18 +11593,18 @@
         <v>738</v>
       </c>
       <c r="R230" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B231" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C231" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D231" t="s">
         <v>4</v>
@@ -11604,18 +11628,18 @@
         <v>738</v>
       </c>
       <c r="R231" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B232" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C232" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D232" t="s">
         <v>4</v>
@@ -11638,19 +11662,19 @@
       <c r="P232" t="s">
         <v>738</v>
       </c>
-      <c r="Q232" t="s">
-        <v>744</v>
-      </c>
       <c r="R232" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B233" t="s">
-        <v>545</v>
+        <v>531</v>
+      </c>
+      <c r="C233" t="s">
+        <v>709</v>
       </c>
       <c r="D233" t="s">
         <v>4</v>
@@ -11682,10 +11706,10 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B234" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D234" t="s">
         <v>4</v>
@@ -11717,10 +11741,10 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B235" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
@@ -11752,10 +11776,10 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="D236" t="s">
         <v>4</v>
@@ -11787,10 +11811,10 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B237" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D237" t="s">
         <v>4</v>
@@ -11822,10 +11846,10 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B238" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D238" t="s">
         <v>4</v>
@@ -11857,10 +11881,10 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B239" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
@@ -11892,10 +11916,10 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B240" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
@@ -11927,10 +11951,10 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
@@ -11962,10 +11986,10 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B242" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
@@ -11997,10 +12021,10 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B243" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
@@ -12032,10 +12056,10 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -12067,10 +12091,10 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B245" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -12102,10 +12126,10 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="D246" t="s">
         <v>4</v>
@@ -12137,13 +12161,10 @@
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>598</v>
-      </c>
-      <c r="C247" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
@@ -12166,19 +12187,22 @@
       <c r="P247" t="s">
         <v>738</v>
       </c>
+      <c r="Q247" t="s">
+        <v>744</v>
+      </c>
       <c r="R247" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="C248" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
@@ -12200,40 +12224,75 @@
       </c>
       <c r="P248" t="s">
         <v>738</v>
+      </c>
+      <c r="R248" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>202</v>
+      </c>
+      <c r="B249" t="s">
+        <v>562</v>
+      </c>
+      <c r="C249" t="s">
+        <v>712</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" t="s">
+        <v>292</v>
+      </c>
+      <c r="G249" t="s">
+        <v>20</v>
+      </c>
+      <c r="H249" t="s">
+        <v>113</v>
+      </c>
+      <c r="L249" t="s">
+        <v>57</v>
+      </c>
+      <c r="O249" t="s">
+        <v>295</v>
+      </c>
+      <c r="P249" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>283</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>640</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C250" t="s">
         <v>711</v>
       </c>
-      <c r="D249" t="s">
-        <v>4</v>
-      </c>
-      <c r="E249" t="s">
-        <v>292</v>
-      </c>
-      <c r="G249" t="s">
-        <v>20</v>
-      </c>
-      <c r="H249" t="s">
-        <v>113</v>
-      </c>
-      <c r="L249" t="s">
-        <v>57</v>
-      </c>
-      <c r="O249" t="s">
-        <v>295</v>
-      </c>
-      <c r="P249" t="s">
-        <v>738</v>
-      </c>
-      <c r="R249" t="s">
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" t="s">
+        <v>292</v>
+      </c>
+      <c r="G250" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" t="s">
+        <v>113</v>
+      </c>
+      <c r="L250" t="s">
+        <v>57</v>
+      </c>
+      <c r="O250" t="s">
+        <v>295</v>
+      </c>
+      <c r="P250" t="s">
+        <v>738</v>
+      </c>
+      <c r="R250" t="s">
         <v>755</v>
       </c>
     </row>
@@ -12251,55 +12310,55 @@
           <x14:formula1>
             <xm:f>'List options'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D249</xm:sqref>
+          <xm:sqref>D2:D250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E460DE7-8F87-F04F-8BB0-4F39179473AB}">
           <x14:formula1>
             <xm:f>'List options'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J249</xm:sqref>
+          <xm:sqref>J2:J250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDAA4A43-7BE0-7D40-90B6-8FB9D9E58678}">
           <x14:formula1>
             <xm:f>'List options'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K249</xm:sqref>
+          <xm:sqref>K2:K250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B119D1AD-A38F-E34A-9449-C43077A98CB0}">
           <x14:formula1>
             <xm:f>'List options'!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H249</xm:sqref>
+          <xm:sqref>H2:H250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8F9807-5020-344C-AC6C-6F55F671046A}">
           <x14:formula1>
             <xm:f>'List options'!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G249</xm:sqref>
+          <xm:sqref>G2:G250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C907890-5F6A-E34E-949F-B812B3AB0E61}">
           <x14:formula1>
             <xm:f>'List options'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M249</xm:sqref>
+          <xm:sqref>M2:M250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C3532CD-AD48-9F4F-9DAF-F8629289A3AE}">
           <x14:formula1>
             <xm:f>'List options'!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N249</xm:sqref>
+          <xm:sqref>N2:N250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D530E642-5308-A74E-890E-60D3DA09A154}">
           <x14:formula1>
             <xm:f>'List options'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F249</xm:sqref>
+          <xm:sqref>F2:F250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5D4F3BB-E89F-2C45-9E14-5D1A5BEC0ED8}">
           <x14:formula1>
             <xm:f>'List options'!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E249</xm:sqref>
+          <xm:sqref>E2:E250</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BAFF92-5CF6-C644-B2B8-8B37BA58AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68190B95-DCE6-FF43-9BAD-1A7B4923F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="789">
   <si>
     <t>Feature</t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>relative_tx_position</t>
+  </si>
+  <si>
+    <t>The relative position of a transaction within its block</t>
   </si>
 </sst>
 </file>
@@ -2504,18 +2507,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -2697,7 +2694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2720,14 +2717,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3279,10 +3272,10 @@
   <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J228" sqref="J228"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3438,7 +3431,7 @@
       <c r="N3" t="s">
         <v>316</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="23" t="s">
         <v>738</v>
       </c>
       <c r="Q3" t="s">
@@ -3479,7 +3472,7 @@
       <c r="N4" t="s">
         <v>316</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="23" t="s">
         <v>737</v>
       </c>
       <c r="Q4" t="s">
@@ -3523,7 +3516,7 @@
       <c r="N5" t="s">
         <v>316</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="23" t="s">
         <v>737</v>
       </c>
       <c r="Q5" t="s">
@@ -3567,7 +3560,7 @@
       <c r="N6" t="s">
         <v>315</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="23" t="s">
         <v>739</v>
       </c>
       <c r="Q6" t="s">
@@ -3608,7 +3601,7 @@
       <c r="N7" t="s">
         <v>315</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="23" t="s">
         <v>738</v>
       </c>
       <c r="Q7" t="s">
@@ -3652,7 +3645,7 @@
       <c r="N8" t="s">
         <v>316</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="23" t="s">
         <v>739</v>
       </c>
       <c r="Q8" t="s">
@@ -3693,7 +3686,7 @@
       <c r="N9" t="s">
         <v>316</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="23" t="s">
         <v>737</v>
       </c>
       <c r="Q9" t="s">
@@ -3737,7 +3730,7 @@
       <c r="N10" t="s">
         <v>316</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="23" t="s">
         <v>739</v>
       </c>
       <c r="Q10" t="s">
@@ -3784,7 +3777,7 @@
       <c r="O11" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="23" t="s">
         <v>739</v>
       </c>
       <c r="Q11" t="s">
@@ -3825,7 +3818,7 @@
       <c r="N12" t="s">
         <v>316</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="23" t="s">
         <v>738</v>
       </c>
       <c r="Q12" t="s">
@@ -4291,6 +4284,9 @@
       <c r="N23" t="s">
         <v>314</v>
       </c>
+      <c r="P23" t="s">
+        <v>739</v>
+      </c>
       <c r="Q23" t="s">
         <v>743</v>
       </c>
@@ -4685,7 +4681,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -4773,7 +4769,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4817,7 +4813,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>57</v>
       </c>
@@ -4861,7 +4857,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>759</v>
       </c>
@@ -4893,7 +4889,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>760</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>761</v>
       </c>
@@ -4957,14 +4953,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>762</v>
       </c>
       <c r="B40" t="s">
         <v>766</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>770</v>
       </c>
       <c r="D40" t="s">
@@ -4989,14 +4985,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>771</v>
       </c>
       <c r="B41" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>773</v>
       </c>
       <c r="D41" t="s">
@@ -5021,14 +5017,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>772</v>
       </c>
       <c r="B42" t="s">
         <v>776</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>774</v>
       </c>
       <c r="D42" t="s">
@@ -5056,42 +5052,46 @@
         <v>743</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24" t="s">
+      <c r="B43" t="s">
+        <v>788</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q43" s="24" t="s">
+      <c r="P43" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q43" t="s">
         <v>743</v>
       </c>
-      <c r="R43" s="24"/>
-    </row>
-    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>777</v>
       </c>
       <c r="B44" t="s">
         <v>778</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>779</v>
       </c>
       <c r="D44" t="s">
@@ -5119,14 +5119,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>780</v>
       </c>
       <c r="B45" t="s">
         <v>782</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>785</v>
       </c>
       <c r="D45" t="s">
@@ -5151,14 +5151,14 @@
         <v>743</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>781</v>
       </c>
       <c r="B46" t="s">
         <v>783</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>784</v>
       </c>
       <c r="D46" t="s">
@@ -5179,8 +5179,11 @@
       <c r="P46" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>

--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68190B95-DCE6-FF43-9BAD-1A7B4923F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9779D-68ED-F74B-B04D-089DDD1268FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="790">
   <si>
     <t>Feature</t>
   </si>
@@ -2444,6 +2444,9 @@
   </si>
   <si>
     <t>The relative position of a transaction within its block</t>
+  </si>
+  <si>
+    <t>Cyclical</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2720,7 +2723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3271,11 +3273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3431,7 +3433,7 @@
       <c r="N3" t="s">
         <v>316</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" t="s">
         <v>738</v>
       </c>
       <c r="Q3" t="s">
@@ -3472,7 +3474,7 @@
       <c r="N4" t="s">
         <v>316</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" t="s">
         <v>737</v>
       </c>
       <c r="Q4" t="s">
@@ -3516,7 +3518,7 @@
       <c r="N5" t="s">
         <v>316</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" t="s">
         <v>737</v>
       </c>
       <c r="Q5" t="s">
@@ -3560,7 +3562,7 @@
       <c r="N6" t="s">
         <v>315</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" t="s">
         <v>739</v>
       </c>
       <c r="Q6" t="s">
@@ -3601,7 +3603,7 @@
       <c r="N7" t="s">
         <v>315</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" t="s">
         <v>738</v>
       </c>
       <c r="Q7" t="s">
@@ -3645,7 +3647,7 @@
       <c r="N8" t="s">
         <v>316</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" t="s">
         <v>739</v>
       </c>
       <c r="Q8" t="s">
@@ -3686,7 +3688,7 @@
       <c r="N9" t="s">
         <v>316</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" t="s">
         <v>737</v>
       </c>
       <c r="Q9" t="s">
@@ -3730,7 +3732,7 @@
       <c r="N10" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" t="s">
         <v>739</v>
       </c>
       <c r="Q10" t="s">
@@ -3777,7 +3779,7 @@
       <c r="O11" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" t="s">
         <v>739</v>
       </c>
       <c r="Q11" t="s">
@@ -3818,7 +3820,7 @@
       <c r="N12" t="s">
         <v>316</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>738</v>
       </c>
       <c r="Q12" t="s">
@@ -4874,7 +4876,7 @@
         <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="H37" t="s">
         <v>113</v>
@@ -4906,7 +4908,7 @@
         <v>298</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="H38" t="s">
         <v>113</v>
@@ -4938,7 +4940,7 @@
         <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="H39" t="s">
         <v>113</v>
@@ -4970,7 +4972,7 @@
         <v>298</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>789</v>
       </c>
       <c r="H40" t="s">
         <v>113</v>
@@ -5053,7 +5055,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="A43" t="s">
         <v>787</v>
       </c>
       <c r="B43" t="s">
@@ -12517,8 +12519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270F6DC-4E94-4848-96D1-0B6D4BC6E591}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12778,6 +12780,9 @@
       <c r="B12" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">

--- a/Feature list.xlsx
+++ b/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E9779D-68ED-F74B-B04D-089DDD1268FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF624AC-7263-D143-95AF-6DB0D791D779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -3274,10 +3274,10 @@
   <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4885,7 @@
         <v>27</v>
       </c>
       <c r="P37" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q37" t="s">
         <v>743</v>
@@ -4917,7 +4917,7 @@
         <v>27</v>
       </c>
       <c r="P38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q38" t="s">
         <v>743</v>
@@ -4949,7 +4949,7 @@
         <v>27</v>
       </c>
       <c r="P39" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q39" t="s">
         <v>743</v>
@@ -4981,7 +4981,7 @@
         <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q40" t="s">
         <v>743</v>
@@ -5013,7 +5013,7 @@
         <v>27</v>
       </c>
       <c r="P41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q41" t="s">
         <v>743</v>
@@ -5048,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="P42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q42" t="s">
         <v>743</v>
@@ -5080,7 +5080,7 @@
         <v>31</v>
       </c>
       <c r="P43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q43" t="s">
         <v>743</v>
@@ -12304,6 +12304,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
